--- a/Bot_shopee/Data_shopee/data_1_1_0.xlsx
+++ b/Bot_shopee/Data_shopee/data_1_1_0.xlsx
@@ -406,18 +406,18 @@
         <v>JVW3E2</v>
       </c>
       <c r="K1" t="str">
+        <v>_1FKkT</v>
+      </c>
+      <c r="L1" t="str">
         <v>bx++ig 2</v>
       </c>
-      <c r="L1" t="str">
+      <c r="M1" t="str">
         <v>k9JZlv 2</v>
-      </c>
-      <c r="M1" t="str">
-        <v>_1FKkT</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>https://shopee.co.th/%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1-(%E0%B9%81%E0%B8%9E%E0%B9%87%E0%B8%84-1-%E0%B8%84%E0%B8%B9%E0%B9%88)-%E0%B8%84%E0%B8%A7%E0%B8%B2%E0%B8%A1%E0%B9%84%E0%B8%A7%E0%B8%AA%E0%B8%B9%E0%B8%87-%E0%B8%97%E0%B8%B1%E0%B8%8A%E0%B8%A5%E0%B8%B7%E0%B9%88%E0%B8%99-%E0%B9%81%E0%B8%A1%E0%B9%88%E0%B8%99%E0%B8%A2%E0%B8%B3-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%A5%E0%B8%B7%E0%B9%88%E0%B8%99%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B8%9B%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%80%E0%B8%AB%E0%B8%87%E0%B8%B7%E0%B9%88%E0%B8%AD-3-%E0%B8%AA%E0%B8%B5-i.299697925.23471580411?sp_atk=749eab91-284a-4e85-a970-1eb677827333&amp;xptdk=749eab91-284a-4e85-a970-1eb677827333</v>
+        <v>https://shopee.co.th/%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1-(%E0%B9%81%E0%B8%9E%E0%B9%87%E0%B8%84-1-%E0%B8%84%E0%B8%B9%E0%B9%88)-%E0%B8%84%E0%B8%A7%E0%B8%B2%E0%B8%A1%E0%B9%84%E0%B8%A7%E0%B8%AA%E0%B8%B9%E0%B8%87-%E0%B8%97%E0%B8%B1%E0%B8%8A%E0%B8%A5%E0%B8%B7%E0%B9%88%E0%B8%99-%E0%B9%81%E0%B8%A1%E0%B9%88%E0%B8%99%E0%B8%A2%E0%B8%B3-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%A5%E0%B8%B7%E0%B9%88%E0%B8%99%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B8%9B%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%80%E0%B8%AB%E0%B8%87%E0%B8%B7%E0%B9%88%E0%B8%AD-3-%E0%B8%AA%E0%B8%B5-i.299697925.23471580411?sp_atk=d8190404-1b16-47b2-9ce7-e4bf0ad2e898&amp;xptdk=d8190404-1b16-47b2-9ce7-e4bf0ad2e898</v>
       </c>
       <c r="B2" t="str">
         <v>https://down-th.img.susercontent.com/file/th-11134207-7qul2-li9vya0p1mg82d_tn</v>
@@ -441,7 +441,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="str">
-        <v>ขายแล้ว 120.1พัน ชิ้น</v>
+        <v>ขายแล้ว 121พัน ชิ้น</v>
       </c>
       <c r="J2" t="str">
         <v>จังหวัดกรุงเทพมหานคร</v>
@@ -458,37 +458,37 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>https://shopee.co.th/%F0%9F%92%A5-DOBE-PS5-Controller-Mobile-%E0%B9%81%E0%B8%97%E0%B9%89-%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%AB%E0%B8%99%E0%B8%B5%E0%B8%9A%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B8%96%E0%B8%B7%E0%B8%AD%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B8%88%E0%B8%AD%E0%B8%A2-PS5-%E0%B8%AD%E0%B9%88%E0%B8%B2%E0%B8%99%E0%B8%A3%E0%B8%B2%E0%B8%A2%E0%B8%A5%E0%B8%B0%E0%B9%80%E0%B8%AD%E0%B8%B5%E0%B8%A2%E0%B8%94%E0%B8%81%E0%B9%88%E0%B8%AD%E0%B8%99%F0%9F%94%A5-%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B9%84%E0%B8%A7%E0%B8%A1%E0%B8%B2%E0%B8%81-%E0%B8%A1%E0%B8%B5%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%81%E0%B8%B1%E0%B8%99-i.258612544.21276270099?sp_atk=2266c35a-4cac-488b-9bdc-0aa2d119cc6e&amp;xptdk=2266c35a-4cac-488b-9bdc-0aa2d119cc6e</v>
+        <v>https://shopee.co.th/%F0%9F%94%A5%F0%9F%94%A5%F0%9F%94%A5(%E0%B9%84%E0%B8%94%E0%B9%892%E0%B8%82%E0%B9%89%E0%B8%B2%E0%B8%87)-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%A5%E0%B8%B7%E0%B9%88%E0%B8%99-%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%AA%E0%B9%8C-%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B9%83%E0%B8%AA%E0%B9%88%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B9%82%E0%B8%9B%E0%B9%89%E0%B8%87-Pubg-Rov-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%A5%E0%B8%B7%E0%B9%88%E0%B8%99-%E0%B8%97%E0%B8%99-i.214400380.23071074897?sp_atk=58dd0747-8450-4b49-8641-0497d93aeeba&amp;xptdk=58dd0747-8450-4b49-8641-0497d93aeeba</v>
       </c>
       <c r="B3" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7qul9-liayxb890e7c1f_tn</v>
+        <v>https://down-th.img.susercontent.com/file/e64cd0ad2bda9c8fdb6fbd026eeb5f0f_tn</v>
       </c>
       <c r="C3" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="D3" t="str">
-        <v/>
+        <v>-95%</v>
       </c>
       <c r="E3" t="str">
         <v/>
       </c>
       <c r="F3" t="str">
-        <v>💥 DOBE PS5 Controller Mobile แท้ ที่หนีบมือถือของจอย PS5 อ่านรายละเอียดก่อน🔥 ส่งไวมาก มีประกัน</v>
+        <v>🔥🔥🔥(ได้2ข้าง) กันลื่น ถุงนิ้วเล่นเกมส์ ถุงนิ้วใส่นิ้วโป้ง Pubg Rov กันลื่น ทน</v>
       </c>
       <c r="G3" t="str">
-        <v/>
+        <v>฿42</v>
       </c>
       <c r="H3" t="str">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="I3" t="str">
-        <v>ขายแล้ว 353 ชิ้น</v>
+        <v>ขายแล้ว 7.7พัน ชิ้น</v>
       </c>
       <c r="J3" t="str">
-        <v>จังหวัดนนทบุรี</v>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="K3" t="str">
-        <v/>
+        <v>โค้ดลด 1%</v>
       </c>
       <c r="L3" t="str">
         <v/>
@@ -499,81 +499,81 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>https://shopee.co.th/HNT-HJ-10-%E0%B8%9B%E0%B8%B8%E0%B9%88%E0%B8%A1%E0%B8%A2%E0%B8%B4%E0%B8%87%E0%B8%AA%E0%B8%B3%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%AA%E0%B9%8C%E0%B8%A2%E0%B8%B4%E0%B8%87%E0%B8%9B%E0%B8%B7%E0%B8%99-%E0%B8%AA%E0%B8%B3%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99-PubG-%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%AA%E0%B9%8C%E0%B8%AD%E0%B8%B7%E0%B9%88%E0%B8%99%E0%B9%86-%E0%B9%83%E0%B8%8A%E0%B9%89%E0%B9%84%E0%B8%94%E0%B9%89%E0%B8%81%E0%B8%B1%E0%B8%9A%E0%B8%AA%E0%B8%A1%E0%B8%B2%E0%B8%A3%E0%B9%8C%E0%B8%97%E0%B9%82%E0%B8%9F%E0%B8%99%E0%B8%97%E0%B8%B8%E0%B8%81%E0%B8%A3%E0%B8%B8%E0%B9%88%E0%B8%99-%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2%E0%B8%88%E0%B8%AD%E0%B8%AA%E0%B8%B9%E0%B8%87%E0%B8%AA%E0%B8%B8%E0%B8%94-6.7-%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7-i.11864642.14863124462?sp_atk=51e9efe9-38b6-494b-8472-2f7d352d4c33&amp;xptdk=51e9efe9-38b6-494b-8472-2f7d352d4c33</v>
+        <v>https://shopee.co.th/Hx-%E0%B8%A1%E0%B8%B2%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88-%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%81%E0%B8%AA%E0%B8%A7%E0%B8%A1%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B8%A1%E0%B8%B7%E0%B8%AD-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%A5%E0%B8%B7%E0%B9%88%E0%B8%99-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%80%E0%B8%AB%E0%B8%87%E0%B8%B7%E0%B9%88%E0%B8%AD-%E0%B8%A5%E0%B8%B2%E0%B8%A2-One-Piece-Luffi-Nika-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B9%80%E0%B8%94%E0%B9%87%E0%B8%81-%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1-%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B8%82%E0%B8%A7%E0%B8%B1%E0%B8%8D%E0%B8%84%E0%B8%A3%E0%B8%B4%E0%B8%AA%E0%B8%95%E0%B9%8C%E0%B8%A1%E0%B8%B2%E0%B8%AA-i.1078278409.25704266179?sp_atk=ee96e75a-b0ab-4792-9989-c8db713a4fc2&amp;xptdk=ee96e75a-b0ab-4792-9989-c8db713a4fc2</v>
       </c>
       <c r="B4" t="str">
-        <v>https://down-th.img.susercontent.com/file/a6a623192ebc958cc7cf13b6f2826ef4_tn</v>
+        <v>https://down-th.img.susercontent.com/file/cn-11134207-7r98o-lpj6vaxr7qtb1d_tn</v>
       </c>
       <c r="C4" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D4" t="str">
-        <v>-99%</v>
+        <v>-89%</v>
       </c>
       <c r="E4" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-dfe02b2e2296fa17d79fc513bfadb4da</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="F4" t="str">
-        <v>HNT HJ-10 ปุ่มยิงสำหรับเกมส์ยิงปืน สำหรับเล่น PubG และเกมส์อื่นๆ ใช้ได้กับสมาร์ทโฟนทุกรุ่น หน้าจอสูงสุด 6.7 นิ้ว</v>
+        <v>Hx มาใหม่ ปลอกสวมนิ้วมือ กันลื่น กันเหงื่อ ลาย One Piece Luffi-Nika สําหรับเด็ก เล่นเกม ของขวัญคริสต์มาส</v>
       </c>
       <c r="G4" t="str">
-        <v>฿99</v>
+        <v>-</v>
       </c>
       <c r="H4" t="str">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="I4" t="str">
-        <v>ขายแล้ว 3.9พัน ชิ้น</v>
+        <v>ขายแล้ว 562 ชิ้น</v>
       </c>
       <c r="J4" t="str">
-        <v>จังหวัดนนทบุรี</v>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="K4" t="str">
         <v/>
       </c>
       <c r="L4" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="M4" t="str">
-        <v/>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>https://shopee.co.th/Bluewow-%E3%80%90Goku%E3%80%91%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%81%E0%B8%AA%E0%B8%A7%E0%B8%A1%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B8%AB%E0%B8%B1%E0%B8%A7%E0%B9%81%E0%B8%A1%E0%B9%88%E0%B8%A1%E0%B8%B7%E0%B8%AD-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%A5%E0%B8%B7%E0%B9%88%E0%B8%99-%E0%B8%A3%E0%B8%B0%E0%B8%9A%E0%B8%B2%E0%B8%A2%E0%B8%AD%E0%B8%B2%E0%B8%81%E0%B8%B2%E0%B8%A8-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%80%E0%B8%AB%E0%B8%87%E0%B8%B7%E0%B9%88%E0%B8%AD-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B8%96%E0%B8%B7%E0%B8%AD-PUBG-i.1017711041.23379238818?sp_atk=f62f7c16-3a4e-4fe0-96c4-72be4efcd5ed&amp;xptdk=f62f7c16-3a4e-4fe0-96c4-72be4efcd5ed</v>
+        <v>https://shopee.co.th/%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B8%96%E0%B8%B7%E0%B8%AD%E0%B8%9B%E0%B8%A5%E0%B8%B2%E0%B8%A2%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B8%A3%E0%B8%B0%E0%B8%9A%E0%B8%B2%E0%B8%A2%E0%B8%AD%E0%B8%B2%E0%B8%81%E0%B8%B2%E0%B8%A8%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B8%9B%E0%B8%81%E0%B8%84%E0%B8%A5%E0%B8%B8%E0%B8%A1%E0%B8%AA%E0%B8%B3%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A-Pubg-Gamer-S-Weatproof-%E0%B8%A5%E0%B8%B7%E0%B9%88%E0%B8%99%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2%E0%B8%88%E0%B8%AD%E0%B8%AA%E0%B8%B1%E0%B8%A1%E0%B8%9C%E0%B8%B1%E0%B8%AA%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B9%81%E0%B8%82%E0%B8%99-TH-i.348902359.20888776773?sp_atk=127b59b8-c9b5-4ab8-a182-a86bfcee98d8&amp;xptdk=127b59b8-c9b5-4ab8-a182-a86bfcee98d8</v>
       </c>
       <c r="B5" t="str">
-        <v>https://down-th.img.susercontent.com/file/cn-11134207-7r98o-lpw36p32jbxxd6_tn</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-7qvd6-lguncryzsu6y71_tn</v>
       </c>
       <c r="C5" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="D5" t="str">
-        <v>-98%</v>
+        <v>-57%</v>
       </c>
       <c r="E5" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="F5" t="str">
-        <v>Bluewow 【Goku】ปลอกสวมนิ้วหัวแม่มือ กันลื่น ระบายอากาศ กันเหงื่อ สําหรับเล่นเกมมือถือ PUBG</v>
+        <v>เกมมือถือปลายนิ้วถุงมือระบายอากาศเล่นเกมนิ้วปกคลุมสำหรับ Pubg Gamer S Weatproof ลื่นหน้าจอสัมผัสนิ้วแขน TH</v>
       </c>
       <c r="G5" t="str">
-        <v>-</v>
+        <v>฿7</v>
       </c>
       <c r="H5" t="str">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I5" t="str">
-        <v>ขายแล้ว 184 ชิ้น</v>
+        <v>ขายแล้ว 3.4พัน ชิ้น</v>
       </c>
       <c r="J5" t="str">
         <v>ต่างประเทศ</v>
       </c>
       <c r="K5" t="str">
-        <v>฿</v>
+        <v/>
       </c>
       <c r="L5" t="str">
-        <v>70</v>
+        <v/>
       </c>
       <c r="M5" t="str">
         <v/>
@@ -581,34 +581,34 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>https://shopee.co.th/%F0%9F%94%A5%F0%9F%94%A5%F0%9F%94%A5(%E0%B9%84%E0%B8%94%E0%B9%892%E0%B8%82%E0%B9%89%E0%B8%B2%E0%B8%87)-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%A5%E0%B8%B7%E0%B9%88%E0%B8%99-%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%AA%E0%B9%8C-%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B9%83%E0%B8%AA%E0%B9%88%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B9%82%E0%B8%9B%E0%B9%89%E0%B8%87-Pubg-Rov-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%A5%E0%B8%B7%E0%B9%88%E0%B8%99-%E0%B8%97%E0%B8%99-i.214400380.23071074897?sp_atk=b77497d2-b54b-4e3e-b83d-dfc73c34dc9b&amp;xptdk=b77497d2-b54b-4e3e-b83d-dfc73c34dc9b</v>
+        <v>https://shopee.co.th/%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%81%E0%B8%96%E0%B9%88%E0%B8%B2%E0%B8%99%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%9418650-ODB%E0%B9%81%E0%B8%97%E0%B9%89100-%E0%B8%A3%E0%B8%B2%E0%B8%84%E0%B8%B2%E0%B8%95%E0%B9%88%E0%B8%AD%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-i.223620969.12493156764?sp_atk=f6333e64-fb50-4cf2-98eb-1f4d57954390&amp;xptdk=f6333e64-fb50-4cf2-98eb-1f4d57954390</v>
       </c>
       <c r="B6" t="str">
-        <v>https://down-th.img.susercontent.com/file/e64cd0ad2bda9c8fdb6fbd026eeb5f0f_tn</v>
+        <v>https://down-th.img.susercontent.com/file/19b07e2772ade2b500a2427ed7ca3467_tn</v>
       </c>
       <c r="C6" t="str">
         <v/>
       </c>
       <c r="D6" t="str">
-        <v>-95%</v>
+        <v/>
       </c>
       <c r="E6" t="str">
-        <v/>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="F6" t="str">
-        <v>🔥🔥🔥(ได้2ข้าง) กันลื่น ถุงนิ้วเล่นเกมส์ ถุงนิ้วใส่นิ้วโป้ง Pubg Rov กันลื่น ทน</v>
+        <v>ปลอกถ่านขนาด18650 ODBแท้100% ราคาต่อชิ้น</v>
       </c>
       <c r="G6" t="str">
-        <v>฿42</v>
+        <v/>
       </c>
       <c r="H6" t="str">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I6" t="str">
-        <v>ขายแล้ว 6.7พัน ชิ้น</v>
+        <v>ขายแล้ว 1.6พัน ชิ้น</v>
       </c>
       <c r="J6" t="str">
-        <v>ต่างประเทศ</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K6" t="str">
         <v/>
@@ -617,162 +617,162 @@
         <v/>
       </c>
       <c r="M6" t="str">
-        <v>โค้ดลด 1%</v>
+        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>https://shopee.co.th/Hx-%E0%B8%A1%E0%B8%B2%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88-%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%81%E0%B8%AA%E0%B8%A7%E0%B8%A1%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B8%A1%E0%B8%B7%E0%B8%AD-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%A5%E0%B8%B7%E0%B9%88%E0%B8%99-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%80%E0%B8%AB%E0%B8%87%E0%B8%B7%E0%B9%88%E0%B8%AD-%E0%B8%A5%E0%B8%B2%E0%B8%A2-One-Piece-Luffi-Nika-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B9%80%E0%B8%94%E0%B9%87%E0%B8%81-%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1-%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B8%82%E0%B8%A7%E0%B8%B1%E0%B8%8D%E0%B8%84%E0%B8%A3%E0%B8%B4%E0%B8%AA%E0%B8%95%E0%B9%8C%E0%B8%A1%E0%B8%B2%E0%B8%AA-i.1078278409.25704266179?sp_atk=6147ff57-b1e0-4878-b0c0-7d105b55333c&amp;xptdk=6147ff57-b1e0-4878-b0c0-7d105b55333c</v>
+        <v>https://shopee.co.th/HNT-HJ-10-%E0%B8%9B%E0%B8%B8%E0%B9%88%E0%B8%A1%E0%B8%A2%E0%B8%B4%E0%B8%87%E0%B8%AA%E0%B8%B3%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%AA%E0%B9%8C%E0%B8%A2%E0%B8%B4%E0%B8%87%E0%B8%9B%E0%B8%B7%E0%B8%99-%E0%B8%AA%E0%B8%B3%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99-PubG-%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%AA%E0%B9%8C%E0%B8%AD%E0%B8%B7%E0%B9%88%E0%B8%99%E0%B9%86-%E0%B9%83%E0%B8%8A%E0%B9%89%E0%B9%84%E0%B8%94%E0%B9%89%E0%B8%81%E0%B8%B1%E0%B8%9A%E0%B8%AA%E0%B8%A1%E0%B8%B2%E0%B8%A3%E0%B9%8C%E0%B8%97%E0%B9%82%E0%B8%9F%E0%B8%99%E0%B8%97%E0%B8%B8%E0%B8%81%E0%B8%A3%E0%B8%B8%E0%B9%88%E0%B8%99-%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2%E0%B8%88%E0%B8%AD%E0%B8%AA%E0%B8%B9%E0%B8%87%E0%B8%AA%E0%B8%B8%E0%B8%94-6.7-%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7-i.11864642.14863124462?sp_atk=f6d6a843-6b7f-4e48-aa63-bab20768c4e4&amp;xptdk=f6d6a843-6b7f-4e48-aa63-bab20768c4e4</v>
       </c>
       <c r="B7" t="str">
-        <v>https://down-th.img.susercontent.com/file/cn-11134207-7r98o-lpj6vaxr7qtb1d_tn</v>
+        <v>https://down-th.img.susercontent.com/file/a6a623192ebc958cc7cf13b6f2826ef4_tn</v>
       </c>
       <c r="C7" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="D7" t="str">
-        <v>-89%</v>
+        <v>-99%</v>
       </c>
       <c r="E7" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-dfe02b2e2296fa17d79fc513bfadb4da</v>
       </c>
       <c r="F7" t="str">
-        <v>Hx มาใหม่ ปลอกสวมนิ้วมือ กันลื่น กันเหงื่อ ลาย One Piece Luffi-Nika สําหรับเด็ก เล่นเกม ของขวัญคริสต์มาส</v>
+        <v>HNT HJ-10 ปุ่มยิงสำหรับเกมส์ยิงปืน สำหรับเล่น PubG และเกมส์อื่นๆ ใช้ได้กับสมาร์ทโฟนทุกรุ่น หน้าจอสูงสุด 6.7 นิ้ว</v>
       </c>
       <c r="G7" t="str">
-        <v>-</v>
+        <v>฿99</v>
       </c>
       <c r="H7" t="str">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I7" t="str">
-        <v>ขายแล้ว 514 ชิ้น</v>
+        <v>ขายแล้ว 3.9พัน ชิ้น</v>
       </c>
       <c r="J7" t="str">
-        <v>ต่างประเทศ</v>
+        <v>จังหวัดนนทบุรี</v>
       </c>
       <c r="K7" t="str">
-        <v>฿</v>
+        <v/>
       </c>
       <c r="L7" t="str">
-        <v>68</v>
+        <v/>
       </c>
       <c r="M7" t="str">
-        <v>โค้ดลด ฿2</v>
+        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>https://shopee.co.th/Bluewow-Free-fire-%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%81%E0%B8%AA%E0%B8%A7%E0%B8%A1%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B8%A1%E0%B8%B7%E0%B8%AD-%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2%E0%B8%88%E0%B8%AD%E0%B8%AA%E0%B8%B1%E0%B8%A1%E0%B8%9C%E0%B8%B1%E0%B8%AA-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%80%E0%B8%AB%E0%B8%87%E0%B8%B7%E0%B9%88%E0%B8%AD-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B9%82%E0%B8%97%E0%B8%A3%E0%B8%A8%E0%B8%B1%E0%B8%9E%E0%B8%97%E0%B9%8C%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B8%96%E0%B8%B7%E0%B8%AD-i.853055097.19393259847?sp_atk=a0876299-21fd-44de-bdb2-d6511a3e3ff9&amp;xptdk=a0876299-21fd-44de-bdb2-d6511a3e3ff9</v>
+        <v>https://shopee.co.th/%E0%B8%88%E0%B8%AD%E0%B8%A2%E0%B9%80%E0%B8%81%E0%B8%A1-%E0%B8%9A%E0%B8%A5%E0%B8%B9%E0%B8%97%E0%B8%B9%E0%B8%98%E0%B9%84%E0%B8%A3%E0%B9%89%E0%B8%AA%E0%B8%B2%E0%B8%A2-%E0%B9%81%E0%B8%9B%E0%B9%89%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%9A%E0%B8%A5%E0%B8%B9%E0%B8%97%E0%B8%B9%E0%B8%98-Game-Controller-for-Android-ios-%E0%B8%88%E0%B8%AD%E0%B8%A2%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B9%8A%E0%B8%81%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2-JOY-Bluetooth-%E0%B8%A1%E0%B8%B5%E0%B8%AB%E0%B8%A5%E0%B8%B2%E0%B8%A2%E0%B8%A3%E0%B8%B8%E0%B9%88%E0%B8%99%E0%B8%A1%E0%B8%B5%E0%B9%80%E0%B8%A5%E0%B8%B7%E0%B8%AD%E0%B8%81-i.1038173262.22751215805?sp_atk=1db964ab-c4ab-4e82-b125-decf19bc225d&amp;xptdk=1db964ab-c4ab-4e82-b125-decf19bc225d</v>
       </c>
       <c r="B8" t="str">
-        <v>https://down-th.img.susercontent.com/file/cn-11134207-7r98o-lncbzl9dl2tkec_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98w-ln8301wxm1sj6f_tn</v>
       </c>
       <c r="C8" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="D8" t="str">
-        <v>-92%</v>
+        <v>-39%</v>
       </c>
       <c r="E8" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-300ddf00d967483819649fe53299280c</v>
       </c>
       <c r="F8" t="str">
-        <v>Bluewow Free fire ปลอกสวมนิ้วมือ หน้าจอสัมผัส กันเหงื่อ สําหรับเล่นเกมโทรศัพท์มือถือ</v>
+        <v>จอยเกม บลูทูธไร้สาย แป้นเกมบลูทูธ Game Controller for Android ios จอยสติ๊กแบบพกพา JOY Bluetooth มีหลายรุ่นมีเลือก</v>
       </c>
       <c r="G8" t="str">
         <v>-</v>
       </c>
       <c r="H8" t="str">
-        <v>13</v>
+        <v>199</v>
       </c>
       <c r="I8" t="str">
-        <v>ขายแล้ว 1.4พัน ชิ้น</v>
+        <v>ขายแล้ว 1.7พัน ชิ้น</v>
       </c>
       <c r="J8" t="str">
-        <v>ต่างประเทศ</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K8" t="str">
-        <v>฿</v>
+        <v/>
       </c>
       <c r="L8" t="str">
-        <v>65</v>
+        <v>฿</v>
       </c>
       <c r="M8" t="str">
-        <v>โค้ดลด ฿1</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>https://shopee.co.th/%E0%B8%88%E0%B8%AD%E0%B8%A2%E0%B9%80%E0%B8%81%E0%B8%A1-%E0%B8%9A%E0%B8%A5%E0%B8%B9%E0%B8%97%E0%B8%B9%E0%B8%98%E0%B9%84%E0%B8%A3%E0%B9%89%E0%B8%AA%E0%B8%B2%E0%B8%A2-%E0%B9%81%E0%B8%9B%E0%B9%89%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%9A%E0%B8%A5%E0%B8%B9%E0%B8%97%E0%B8%B9%E0%B8%98-Game-Controller-for-Android-ios-%E0%B8%88%E0%B8%AD%E0%B8%A2%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B9%8A%E0%B8%81%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2-JOY-Bluetooth-%E0%B8%A1%E0%B8%B5%E0%B8%AB%E0%B8%A5%E0%B8%B2%E0%B8%A2%E0%B8%A3%E0%B8%B8%E0%B9%88%E0%B8%99%E0%B8%A1%E0%B8%B5%E0%B9%80%E0%B8%A5%E0%B8%B7%E0%B8%AD%E0%B8%81-i.1038173262.22751215805?sp_atk=ff26c52d-7b98-4c15-b949-7a1d76e373a2&amp;xptdk=ff26c52d-7b98-4c15-b949-7a1d76e373a2</v>
+        <v>https://shopee.co.th/Bluewow-%E3%80%90Goku%E3%80%91%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%81%E0%B8%AA%E0%B8%A7%E0%B8%A1%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B8%AB%E0%B8%B1%E0%B8%A7%E0%B9%81%E0%B8%A1%E0%B9%88%E0%B8%A1%E0%B8%B7%E0%B8%AD-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%A5%E0%B8%B7%E0%B9%88%E0%B8%99-%E0%B8%A3%E0%B8%B0%E0%B8%9A%E0%B8%B2%E0%B8%A2%E0%B8%AD%E0%B8%B2%E0%B8%81%E0%B8%B2%E0%B8%A8-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%80%E0%B8%AB%E0%B8%87%E0%B8%B7%E0%B9%88%E0%B8%AD-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B8%96%E0%B8%B7%E0%B8%AD-PUBG-i.1017711041.23379238818?sp_atk=5862fb74-170e-413b-b7a5-be06b1901c06&amp;xptdk=5862fb74-170e-413b-b7a5-be06b1901c06</v>
       </c>
       <c r="B9" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98w-ln8301wxm1sj6f_tn</v>
+        <v>https://down-th.img.susercontent.com/file/cn-11134207-7r98o-lpw36p32jbxxd6_tn</v>
       </c>
       <c r="C9" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D9" t="str">
-        <v>-39%</v>
+        <v>-98%</v>
       </c>
       <c r="E9" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-300ddf00d967483819649fe53299280c</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="F9" t="str">
-        <v>จอยเกม บลูทูธไร้สาย แป้นเกมบลูทูธ Game Controller for Android ios จอยสติ๊กแบบพกพา JOY Bluetooth มีหลายรุ่นมีเลือก</v>
+        <v>Bluewow 【Goku】ปลอกสวมนิ้วหัวแม่มือ กันลื่น ระบายอากาศ กันเหงื่อ สําหรับเล่นเกมมือถือ PUBG</v>
       </c>
       <c r="G9" t="str">
         <v>-</v>
       </c>
       <c r="H9" t="str">
-        <v>199</v>
+        <v>5</v>
       </c>
       <c r="I9" t="str">
-        <v>ขายแล้ว 1.7พัน ชิ้น</v>
+        <v>ขายแล้ว 186 ชิ้น</v>
       </c>
       <c r="J9" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="K9" t="str">
-        <v>฿</v>
+        <v/>
       </c>
       <c r="L9" t="str">
-        <v>219</v>
+        <v>฿</v>
       </c>
       <c r="M9" t="str">
-        <v/>
+        <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>https://shopee.co.th/%E0%B9%80%E0%B8%84%E0%B8%AA-Nintendo-Switch-Case-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%81%E0%B8%97%E0%B8%81-%E0%B9%80%E0%B8%84%E0%B8%AA%E0%B9%82%E0%B8%9B%E0%B8%A3%E0%B9%88%E0%B8%87%E0%B9%83%E0%B8%AA-%E0%B9%80%E0%B8%84%E0%B8%AA%E0%B8%9B%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B8%81%E0%B8%B1%E0%B8%99-i.112571454.7988088400?sp_atk=acc91c1a-2422-4ffb-9f60-ad6bbcdde2ad&amp;xptdk=acc91c1a-2422-4ffb-9f60-ad6bbcdde2ad</v>
+        <v>https://shopee.co.th/-E-Voucher-%E0%B8%81%E0%B8%B2%E0%B8%A3%E0%B8%B5%E0%B8%99%E0%B8%B2%E0%B9%80%E0%B8%8A%E0%B8%A5%E0%B8%A5%E0%B9%8C-450-Shells-i.45810617.21522700113?sp_atk=242ec3bb-fe75-4e6a-ae31-67dcf44a9bdb&amp;xptdk=242ec3bb-fe75-4e6a-ae31-67dcf44a9bdb</v>
       </c>
       <c r="B10" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-23020-ftm0jinnxcnve3_tn</v>
+        <v>https://down-th.img.susercontent.com/file/29a4c96e0870af39debf8a3e9c417a3e_tn</v>
       </c>
       <c r="C10" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="D10" t="str">
-        <v>-77%</v>
+        <v>-2%</v>
       </c>
       <c r="E10" t="str">
         <v/>
       </c>
       <c r="F10" t="str">
-        <v>เคส Nintendo Switch Case กันกระแทก เคสโปร่งใส เคสป้องกัน</v>
+        <v>[E-Voucher] การีนาเชลล์ 450 Shells</v>
       </c>
       <c r="G10" t="str">
-        <v>฿299</v>
+        <v>฿300</v>
       </c>
       <c r="H10" t="str">
-        <v>70</v>
+        <v>294</v>
       </c>
       <c r="I10" t="str">
-        <v>ขายแล้ว 939 ชิ้น</v>
+        <v>ขายแล้ว 13.4พัน ชิ้น</v>
       </c>
       <c r="J10" t="str">
-        <v>จังหวัดสมุทรสาคร</v>
+        <v/>
       </c>
       <c r="K10" t="str">
         <v/>
@@ -781,45 +781,45 @@
         <v/>
       </c>
       <c r="M10" t="str">
-        <v>โค้ดลด ฿3</v>
+        <v/>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>https://shopee.co.th/HG-%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1-%E0%B8%9B%E0%B8%B4%E0%B8%81%E0%B8%B2%E0%B8%88%E0%B8%B9-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%80%E0%B8%AB%E0%B8%87%E0%B8%B7%E0%B9%88%E0%B8%AD-%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2%E0%B8%88%E0%B8%AD%E0%B8%AA%E0%B8%B1%E0%B8%A1%E0%B8%9C%E0%B8%B1%E0%B8%AA-PUBG-i.1040209476.19791439733?sp_atk=8134e459-d657-42df-aee9-af886a2ac61e&amp;xptdk=8134e459-d657-42df-aee9-af886a2ac61e</v>
+        <v>https://shopee.co.th/%F0%9F%92%A5-DOBE-PS5-Controller-Mobile-%E0%B9%81%E0%B8%97%E0%B9%89-%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%AB%E0%B8%99%E0%B8%B5%E0%B8%9A%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B8%96%E0%B8%B7%E0%B8%AD%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B8%88%E0%B8%AD%E0%B8%A2-PS5-%E0%B8%AD%E0%B9%88%E0%B8%B2%E0%B8%99%E0%B8%A3%E0%B8%B2%E0%B8%A2%E0%B8%A5%E0%B8%B0%E0%B9%80%E0%B8%AD%E0%B8%B5%E0%B8%A2%E0%B8%94%E0%B8%81%E0%B9%88%E0%B8%AD%E0%B8%99%F0%9F%94%A5-%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B9%84%E0%B8%A7%E0%B8%A1%E0%B8%B2%E0%B8%81-%E0%B8%A1%E0%B8%B5%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%81%E0%B8%B1%E0%B8%99-i.258612544.21276270099?sp_atk=24cbd3fd-ccce-4252-abd5-e055efb7ff74&amp;xptdk=24cbd3fd-ccce-4252-abd5-e055efb7ff74</v>
       </c>
       <c r="B11" t="str">
-        <v>https://down-th.img.susercontent.com/file/cn-11134207-7r98o-llhh2qdreuc477_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7qul9-liayxb890e7c1f_tn</v>
       </c>
       <c r="C11" t="str">
         <v>ร้านแนะนำ</v>
       </c>
       <c r="D11" t="str">
-        <v>-60%</v>
+        <v/>
       </c>
       <c r="E11" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+        <v/>
       </c>
       <c r="F11" t="str">
-        <v>HG ถุงมือเล่นเกม ปิกาจู กันเหงื่อ หน้าจอสัมผัส PUBG</v>
+        <v>💥 DOBE PS5 Controller Mobile แท้ ที่หนีบมือถือของจอย PS5 อ่านรายละเอียดก่อน🔥 ส่งไวมาก มีประกัน</v>
       </c>
       <c r="G11" t="str">
-        <v>-</v>
+        <v/>
       </c>
       <c r="H11" t="str">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="I11" t="str">
-        <v>ขายแล้ว 1.2พัน ชิ้น</v>
+        <v>ขายแล้ว 354 ชิ้น</v>
       </c>
       <c r="J11" t="str">
-        <v>ต่างประเทศ</v>
+        <v>จังหวัดนนทบุรี</v>
       </c>
       <c r="K11" t="str">
-        <v>฿</v>
+        <v/>
       </c>
       <c r="L11" t="str">
-        <v>79</v>
+        <v/>
       </c>
       <c r="M11" t="str">
         <v/>
@@ -827,37 +827,37 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>https://shopee.co.th/%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B8%96%E0%B8%B7%E0%B8%AD%E0%B8%9B%E0%B8%A5%E0%B8%B2%E0%B8%A2%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B8%A3%E0%B8%B0%E0%B8%9A%E0%B8%B2%E0%B8%A2%E0%B8%AD%E0%B8%B2%E0%B8%81%E0%B8%B2%E0%B8%A8%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B8%9B%E0%B8%81%E0%B8%84%E0%B8%A5%E0%B8%B8%E0%B8%A1%E0%B8%AA%E0%B8%B3%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A-Pubg-Gamer-S-Weatproof-%E0%B8%A5%E0%B8%B7%E0%B9%88%E0%B8%99%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2%E0%B8%88%E0%B8%AD%E0%B8%AA%E0%B8%B1%E0%B8%A1%E0%B8%9C%E0%B8%B1%E0%B8%AA%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B9%81%E0%B8%82%E0%B8%99-TH-i.348902359.20888776773?sp_atk=6e3fb6c3-05a4-49b7-adca-d63181439f59&amp;xptdk=6e3fb6c3-05a4-49b7-adca-d63181439f59</v>
+        <v>https://shopee.co.th/%E0%B9%80%E0%B8%84%E0%B8%AA-Nintendo-Switch-Case-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%81%E0%B8%97%E0%B8%81-%E0%B9%80%E0%B8%84%E0%B8%AA%E0%B9%82%E0%B8%9B%E0%B8%A3%E0%B9%88%E0%B8%87%E0%B9%83%E0%B8%AA-%E0%B9%80%E0%B8%84%E0%B8%AA%E0%B8%9B%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B8%81%E0%B8%B1%E0%B8%99-i.112571454.7988088400?sp_atk=e6a322bb-a69d-4310-83d9-fe609755d79e&amp;xptdk=e6a322bb-a69d-4310-83d9-fe609755d79e</v>
       </c>
       <c r="B12" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-7qvd6-lguncryzsu6y71_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-23020-ftm0jinnxcnve3_tn</v>
       </c>
       <c r="C12" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D12" t="str">
-        <v>-57%</v>
+        <v>-77%</v>
       </c>
       <c r="E12" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+        <v/>
       </c>
       <c r="F12" t="str">
-        <v>เกมมือถือปลายนิ้วถุงมือระบายอากาศเล่นเกมนิ้วปกคลุมสำหรับ Pubg Gamer S Weatproof ลื่นหน้าจอสัมผัสนิ้วแขน TH</v>
+        <v>เคส Nintendo Switch Case กันกระแทก เคสโปร่งใส เคสป้องกัน</v>
       </c>
       <c r="G12" t="str">
-        <v>฿7</v>
+        <v>฿299</v>
       </c>
       <c r="H12" t="str">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="I12" t="str">
-        <v>ขายแล้ว 3.4พัน ชิ้น</v>
+        <v>ขายแล้ว 943 ชิ้น</v>
       </c>
       <c r="J12" t="str">
-        <v>ต่างประเทศ</v>
+        <v>จังหวัดสมุทรสาคร</v>
       </c>
       <c r="K12" t="str">
-        <v/>
+        <v>โค้ดลด ฿3</v>
       </c>
       <c r="L12" t="str">
         <v/>
@@ -868,92 +868,92 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>https://shopee.co.th/%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%81%E0%B8%96%E0%B9%88%E0%B8%B2%E0%B8%99%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%9418650-ODB%E0%B9%81%E0%B8%97%E0%B9%89100-%E0%B8%A3%E0%B8%B2%E0%B8%84%E0%B8%B2%E0%B8%95%E0%B9%88%E0%B8%AD%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-i.223620969.12493156764?sp_atk=f0d640ff-c674-44d7-9711-8d9b95934602&amp;xptdk=f0d640ff-c674-44d7-9711-8d9b95934602</v>
+        <v>https://shopee.co.th/HG-%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1-%E0%B8%9B%E0%B8%B4%E0%B8%81%E0%B8%B2%E0%B8%88%E0%B8%B9-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%80%E0%B8%AB%E0%B8%87%E0%B8%B7%E0%B9%88%E0%B8%AD-%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2%E0%B8%88%E0%B8%AD%E0%B8%AA%E0%B8%B1%E0%B8%A1%E0%B8%9C%E0%B8%B1%E0%B8%AA-PUBG-i.1040209476.19791439733?sp_atk=a2075046-1816-4671-9de0-d1c16b1e37c5&amp;xptdk=a2075046-1816-4671-9de0-d1c16b1e37c5</v>
       </c>
       <c r="B13" t="str">
-        <v>https://down-th.img.susercontent.com/file/19b07e2772ade2b500a2427ed7ca3467_tn</v>
+        <v>https://down-th.img.susercontent.com/file/cn-11134207-7r98o-llhh2qdreuc477_tn</v>
       </c>
       <c r="C13" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D13" t="str">
-        <v/>
+        <v>-60%</v>
       </c>
       <c r="E13" t="str">
         <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="F13" t="str">
-        <v>ปลอกถ่านขนาด18650 ODBแท้100% ราคาต่อชิ้น</v>
+        <v>HG ถุงมือเล่นเกม ปิกาจู กันเหงื่อ หน้าจอสัมผัส PUBG</v>
       </c>
       <c r="G13" t="str">
-        <v/>
+        <v>-</v>
       </c>
       <c r="H13" t="str">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="I13" t="str">
-        <v>ขายแล้ว 1.6พัน ชิ้น</v>
+        <v>ขายแล้ว 1.2พัน ชิ้น</v>
       </c>
       <c r="J13" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="K13" t="str">
         <v/>
       </c>
       <c r="L13" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="M13" t="str">
-        <v/>
+        <v>79</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>https://shopee.co.th/%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1-1-%E0%B8%84%E0%B8%B9%E0%B9%88-%E0%B8%84%E0%B8%B2%E0%B8%A3%E0%B9%8C%E0%B8%9A%E0%B8%AD%E0%B8%99%E0%B9%84%E0%B8%9F%E0%B9%80%E0%B8%9A%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B8%A3%E0%B8%B0%E0%B8%94%E0%B8%B1%E0%B8%9A%E0%B8%9E%E0%B8%A3%E0%B8%B5%E0%B9%80%E0%B8%A1%E0%B8%B5%E0%B8%A2%E0%B8%A1-%E0%B8%97%E0%B8%B1%E0%B8%8A%E0%B8%A5%E0%B8%B7%E0%B9%88%E0%B8%99-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%80%E0%B8%AB%E0%B8%87%E0%B8%B7%E0%B9%88%E0%B8%AD-%E0%B8%A3%E0%B8%B0%E0%B8%9A%E0%B8%B2%E0%B8%A2%E0%B8%AD%E0%B8%B2%E0%B8%81%E0%B8%B2%E0%B8%A8-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B8%96%E0%B8%B7%E0%B8%AD-i.400525946.23471398086?sp_atk=3fdc8311-2f0f-4849-9489-e48b12a3db06&amp;xptdk=3fdc8311-2f0f-4849-9489-e48b12a3db06</v>
+        <v>https://shopee.co.th/Bluewow-Free-fire-%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%81%E0%B8%AA%E0%B8%A7%E0%B8%A1%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B8%A1%E0%B8%B7%E0%B8%AD-%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2%E0%B8%88%E0%B8%AD%E0%B8%AA%E0%B8%B1%E0%B8%A1%E0%B8%9C%E0%B8%B1%E0%B8%AA-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%80%E0%B8%AB%E0%B8%87%E0%B8%B7%E0%B9%88%E0%B8%AD-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B9%82%E0%B8%97%E0%B8%A3%E0%B8%A8%E0%B8%B1%E0%B8%9E%E0%B8%97%E0%B9%8C%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B8%96%E0%B8%B7%E0%B8%AD-i.853055097.19393259847?sp_atk=b886ffee-e057-408e-aade-72d59c49a2ff&amp;xptdk=b886ffee-e057-408e-aade-72d59c49a2ff</v>
       </c>
       <c r="B14" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7qukx-li73dagooz9t87_tn</v>
+        <v>https://down-th.img.susercontent.com/file/cn-11134207-7r98o-lncbzl9dl2tkec_tn</v>
       </c>
       <c r="C14" t="str">
         <v>ร้านแนะนำ</v>
       </c>
       <c r="D14" t="str">
-        <v>-88%</v>
+        <v>-92%</v>
       </c>
       <c r="E14" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
       </c>
       <c r="F14" t="str">
-        <v>ถุงนิ้วเล่นเกม 1 คู่ คาร์บอนไฟเบอร์ระดับพรีเมียม ทัชลื่น กันเหงื่อ ระบายอากาศ สําหรับเล่นเกมมือถือ</v>
+        <v>Bluewow Free fire ปลอกสวมนิ้วมือ หน้าจอสัมผัส กันเหงื่อ สําหรับเล่นเกมโทรศัพท์มือถือ</v>
       </c>
       <c r="G14" t="str">
         <v>-</v>
       </c>
       <c r="H14" t="str">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I14" t="str">
-        <v>ขายแล้ว 7.6พัน ชิ้น</v>
+        <v>ขายแล้ว 1.4พัน ชิ้น</v>
       </c>
       <c r="J14" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="K14" t="str">
-        <v>฿</v>
+        <v>โค้ดลด ฿1</v>
       </c>
       <c r="L14" t="str">
-        <v>4</v>
+        <v>฿</v>
       </c>
       <c r="M14" t="str">
-        <v/>
+        <v>65</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>https://shopee.co.th/%F0%9F%94%A5-BSP-D3-%E0%B8%88%E0%B8%AD%E0%B8%A2%E0%B8%84%E0%B8%A3%E0%B8%AD%E0%B8%9A%E0%B8%88%E0%B8%B1%E0%B8%81%E0%B8%A3%E0%B8%A7%E0%B8%B2%E0%B8%A5-V.4-%E0%B8%A3%E0%B8%AD%E0%B8%87%E0%B8%A3%E0%B8%B1%E0%B8%9A-iOS-Android-%F0%9F%94%A5%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B9%84%E0%B8%A7-%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%81%E0%B8%B1%E0%B8%991%E0%B8%9B%E0%B8%B5-i.258612544.21676795151?sp_atk=6734c1a1-384a-4e81-9abe-8042c67317a6&amp;xptdk=6734c1a1-384a-4e81-9abe-8042c67317a6</v>
+        <v>https://shopee.co.th/%E0%B9%84%E0%B8%AD%E0%B8%94%E0%B8%B5%E0%B9%84%E0%B8%81%E0%B9%88%E0%B8%95%E0%B8%B1%E0%B8%99BloxFruit%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%81%E0%B8%A3%E0%B8%AA%E0%B8%B8%E0%B9%88%E0%B8%A1%E0%B9%80%E0%B8%9C%E0%B9%88%E0%B8%B2%E0%B8%A7%E0%B8%B54%E0%B8%AA%E0%B8%B8%E0%B8%94%E0%B9%82%E0%B8%AB%E0%B8%94-6%E0%B8%AB%E0%B8%A1%E0%B8%B1%E0%B8%94-%E0%B9%82%E0%B8%A1%E0%B8%88%E0%B8%B4%E0%B8%95%E0%B8%B7%E0%B9%88%E0%B8%99-%E0%B9%80%E0%B8%9C%E0%B9%88%E0%B8%B2V4-i.967757196.22931411908?sp_atk=bf3a92b1-a22b-4760-a3b5-ff04ce91bf05&amp;xptdk=bf3a92b1-a22b-4760-a3b5-ff04ce91bf05</v>
       </c>
       <c r="B15" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r992-llyeco6vlb7r57_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r990-ls2eyss8qe0e01_tn</v>
       </c>
       <c r="C15" t="str">
         <v>ร้านแนะนำ</v>
@@ -965,25 +965,25 @@
         <v/>
       </c>
       <c r="F15" t="str">
-        <v>🔥 BSP-D3 จอยครอบจักรวาล V.4 รองรับ iOS Android 🔥ส่งไว ประกัน1ปี</v>
+        <v>ไอดีไก่ตันBloxFruitของแรสุ่มเผ่าวี4สุดโหด/6หมัด/โมจิตื่น/เผ่าV4</v>
       </c>
       <c r="G15" t="str">
-        <v>-</v>
+        <v/>
       </c>
       <c r="H15" t="str">
-        <v>329</v>
+        <v>179</v>
       </c>
       <c r="I15" t="str">
-        <v>ขายแล้ว 1.7พัน ชิ้น</v>
+        <v>ขายแล้ว 2พัน ชิ้น</v>
       </c>
       <c r="J15" t="str">
-        <v>จังหวัดนนทบุรี</v>
+        <v>จังหวัดตราด</v>
       </c>
       <c r="K15" t="str">
-        <v>฿</v>
+        <v/>
       </c>
       <c r="L15" t="str">
-        <v>379</v>
+        <v/>
       </c>
       <c r="M15" t="str">
         <v/>
@@ -991,34 +991,34 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>https://shopee.co.th/%E0%B8%9B%E0%B8%B8%E0%B9%88%E0%B8%A1%E0%B8%AA%E0%B8%A7%E0%B8%B4%E0%B8%95%E0%B8%8A%E0%B9%8C-Mechanical-Keyboard-Outemu-Switch-Red-Switch-Blue-Switch-Black-Switch-Grey-Switch-i.128859410.21788628832?sp_atk=40db6892-7320-41a1-a6be-06d92ef1b44f&amp;xptdk=40db6892-7320-41a1-a6be-06d92ef1b44f</v>
+        <v>https://shopee.co.th/%E0%B8%A5%E0%B8%B8%E0%B9%89%E0%B8%99%E0%B8%A3%E0%B8%AB%E0%B8%B1%E0%B8%AA%E0%B9%84%E0%B8%81%E0%B9%88%E0%B8%95%E0%B8%B1%E0%B8%99-%E0%B9%80%E0%B8%9C%E0%B9%88%E0%B8%B2V4-T10-%E0%B8%94%E0%B8%B2%E0%B8%9A%E0%B8%84%E0%B8%B9%E0%B9%88%E0%B9%82%E0%B8%AD%E0%B9%80%E0%B8%94%E0%B9%89%E0%B8%87-%E0%B8%AB%E0%B8%A1%E0%B8%B1%E0%B8%94%E0%B8%84%E0%B8%A3%E0%B8%9A-%E0%B8%9C%E0%B8%A5%E0%B8%95%E0%B8%B7%E0%B9%88%E0%B8%99-%E0%B8%9C%E0%B8%A5%E0%B9%81%E0%B8%94%E0%B8%87%E0%B9%83%E0%B8%99%E0%B8%84%E0%B8%A5%E0%B8%B1%E0%B8%87-%E0%B8%9C%E0%B8%A5%E0%B8%96%E0%B8%B2%E0%B8%A7%E0%B8%A3-i.343131871.18785262382?sp_atk=e323b873-1909-4e78-b54a-e683fadf02e3&amp;xptdk=e323b873-1909-4e78-b54a-e683fadf02e3</v>
       </c>
       <c r="B16" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7qul6-lgn4g6ri71f8b9_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98s-lmvw7db4npxj77_tn</v>
       </c>
       <c r="C16" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="D16" t="str">
-        <v>-73%</v>
+        <v/>
       </c>
       <c r="E16" t="str">
         <v/>
       </c>
       <c r="F16" t="str">
-        <v>ปุ่มสวิตช์ Mechanical Keyboard Outemu Switch Red Switch,Blue Switch Black Switch Grey Switch</v>
+        <v>ลุ้นรหัสไก่ตัน เผ่าV4 T10 ดาบคู่โอเด้ง หมัดครบ ผลตื่น ผลแดงในคลัง ผลถาวร</v>
       </c>
       <c r="G16" t="str">
-        <v>฿15</v>
+        <v/>
       </c>
       <c r="H16" t="str">
-        <v>4</v>
+        <v>129</v>
       </c>
       <c r="I16" t="str">
-        <v>ขายแล้ว 20.2พัน ชิ้น</v>
+        <v>ขายแล้ว 89 ชิ้น</v>
       </c>
       <c r="J16" t="str">
-        <v>จังหวัดสมุทรสาคร</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K16" t="str">
         <v/>
@@ -1032,204 +1032,204 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>https://shopee.co.th/%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7-3D-0.3mm-%E0%B8%9C%E0%B9%89%E0%B8%B2%E0%B9%84%E0%B8%AB%E0%B8%A1-(1%E0%B8%84%E0%B8%B9%E0%B9%88)-Flydigi-%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B8%8A%E0%B9%88%E0%B8%A7%E0%B8%A2%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1-%E0%B8%9E%E0%B8%B1%E0%B8%9A%E0%B8%88%E0%B8%B5-ROV-Pubg-%E0%B8%9F%E0%B8%B5%E0%B8%9F%E0%B8%B2%E0%B8%A2-(%E0%B8%AA%E0%B8%B5-2-%E0%B9%81%E0%B8%9A%E0%B8%9A)-i.77858344.18360039890?sp_atk=6ac4bd9e-e163-4cf9-9402-c9bf34805234&amp;xptdk=6ac4bd9e-e163-4cf9-9402-c9bf34805234</v>
+        <v>https://shopee.co.th/%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1-1-%E0%B8%84%E0%B8%B9%E0%B9%88-%E0%B8%84%E0%B8%B2%E0%B8%A3%E0%B9%8C%E0%B8%9A%E0%B8%AD%E0%B8%99%E0%B9%84%E0%B8%9F%E0%B9%80%E0%B8%9A%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B8%A3%E0%B8%B0%E0%B8%94%E0%B8%B1%E0%B8%9A%E0%B8%9E%E0%B8%A3%E0%B8%B5%E0%B9%80%E0%B8%A1%E0%B8%B5%E0%B8%A2%E0%B8%A1-%E0%B8%97%E0%B8%B1%E0%B8%8A%E0%B8%A5%E0%B8%B7%E0%B9%88%E0%B8%99-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%80%E0%B8%AB%E0%B8%87%E0%B8%B7%E0%B9%88%E0%B8%AD-%E0%B8%A3%E0%B8%B0%E0%B8%9A%E0%B8%B2%E0%B8%A2%E0%B8%AD%E0%B8%B2%E0%B8%81%E0%B8%B2%E0%B8%A8-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B8%96%E0%B8%B7%E0%B8%AD-i.400525946.23471398086?sp_atk=e394d13e-ef8c-4853-8727-7091bf053599&amp;xptdk=e394d13e-ef8c-4853-8727-7091bf053599</v>
       </c>
       <c r="B17" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7qul4-lg8v15ncsbnz5b_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7qukx-li73dagooz9t87_tn</v>
       </c>
       <c r="C17" t="str">
         <v>ร้านแนะนำ</v>
       </c>
       <c r="D17" t="str">
-        <v/>
+        <v>-88%</v>
       </c>
       <c r="E17" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="F17" t="str">
-        <v>ถุงนิ้ว 3D 0.3mm ผ้าไหม (1คู่) Flydigi ถุงนิ้วช่วยเล่นเกม พับจี ROV Pubg ฟีฟาย (สี 2 แบบ)</v>
+        <v>ถุงนิ้วเล่นเกม 1 คู่ คาร์บอนไฟเบอร์ระดับพรีเมียม ทัชลื่น กันเหงื่อ ระบายอากาศ สําหรับเล่นเกมมือถือ</v>
       </c>
       <c r="G17" t="str">
         <v>-</v>
       </c>
       <c r="H17" t="str">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="I17" t="str">
-        <v>ขายแล้ว 1.1พัน ชิ้น</v>
+        <v>ขายแล้ว 7.6พัน ชิ้น</v>
       </c>
       <c r="J17" t="str">
-        <v>จังหวัดปทุมธานี</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K17" t="str">
-        <v>฿</v>
+        <v/>
       </c>
       <c r="L17" t="str">
-        <v>139</v>
+        <v>฿</v>
       </c>
       <c r="M17" t="str">
-        <v/>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>https://shopee.co.th/Aa-%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B9%81%E0%B8%9E%E0%B8%94%E0%B8%84%E0%B8%A7%E0%B8%9A%E0%B8%84%E0%B8%B8%E0%B8%A1%E0%B9%80%E0%B8%81%E0%B8%A1-%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B9%84%E0%B8%A3%E0%B9%89%E0%B8%AA%E0%B8%B2%E0%B8%A2-2.4GHz-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A-PS3-PC-TV-Box-TH-i.272826975.22574855061?sp_atk=c2050a03-6b91-4ef2-9249-325463694a6a&amp;xptdk=c2050a03-6b91-4ef2-9249-325463694a6a</v>
+        <v>https://shopee.co.th/%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7-3D-0.3mm-%E0%B8%9C%E0%B9%89%E0%B8%B2%E0%B9%84%E0%B8%AB%E0%B8%A1-(1%E0%B8%84%E0%B8%B9%E0%B9%88)-Flydigi-%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B8%8A%E0%B9%88%E0%B8%A7%E0%B8%A2%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1-%E0%B8%9E%E0%B8%B1%E0%B8%9A%E0%B8%88%E0%B8%B5-ROV-Pubg-%E0%B8%9F%E0%B8%B5%E0%B8%9F%E0%B8%B2%E0%B8%A2-(%E0%B8%AA%E0%B8%B5-2-%E0%B9%81%E0%B8%9A%E0%B8%9A)-i.77858344.18360039890?sp_atk=59cf2b8c-9610-4ce0-8be8-9463fa006d15&amp;xptdk=59cf2b8c-9610-4ce0-8be8-9463fa006d15</v>
       </c>
       <c r="B18" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-7qve3-ljkzsm8wzny679_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7qul4-lg8v15ncsbnz5b_tn</v>
       </c>
       <c r="C18" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D18" t="str">
-        <v>-46%</v>
+        <v/>
       </c>
       <c r="E18" t="str">
-        <v/>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="F18" t="str">
-        <v>Aa เกมแพดควบคุมเกม แบบไร้สาย 2.4GHz สําหรับ PS3 PC TV Box TH</v>
+        <v>ถุงนิ้ว 3D 0.3mm ผ้าไหม (1คู่) Flydigi ถุงนิ้วช่วยเล่นเกม พับจี ROV Pubg ฟีฟาย (สี 2 แบบ)</v>
       </c>
       <c r="G18" t="str">
-        <v>฿240</v>
+        <v>-</v>
       </c>
       <c r="H18" t="str">
-        <v>129</v>
+        <v>35</v>
       </c>
       <c r="I18" t="str">
-        <v>ขายแล้ว 140 ชิ้น</v>
+        <v>ขายแล้ว 1.1พัน ชิ้น</v>
       </c>
       <c r="J18" t="str">
-        <v>ต่างประเทศ</v>
+        <v>จังหวัดปทุมธานี</v>
       </c>
       <c r="K18" t="str">
         <v/>
       </c>
       <c r="L18" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="M18" t="str">
-        <v/>
+        <v>139</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>https://shopee.co.th/-E-Voucher-%E0%B8%81%E0%B8%B2%E0%B8%A3%E0%B8%B5%E0%B8%99%E0%B8%B2%E0%B9%80%E0%B8%8A%E0%B8%A5%E0%B8%A5%E0%B9%8C-450-Shells-i.45810617.21522700113?sp_atk=eb8181e2-5bf8-46db-8a0a-5e308cea4562&amp;xptdk=eb8181e2-5bf8-46db-8a0a-5e308cea4562</v>
+        <v>https://shopee.co.th/%E3%80%90%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99%E0%B9%80%E0%B8%94%E0%B8%B5%E0%B8%A2%E0%B8%A7%E3%80%91HG-%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%81%E0%B8%AA%E0%B8%A7%E0%B8%A1%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B8%A1%E0%B8%B7%E0%B8%AD-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%80%E0%B8%AB%E0%B8%87%E0%B8%B7%E0%B9%88%E0%B8%AD-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1-%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1-i.1040209476.21992407005?sp_atk=21aab2e5-77a9-4588-a91b-aea447babc03&amp;xptdk=21aab2e5-77a9-4588-a91b-aea447babc03</v>
       </c>
       <c r="B19" t="str">
-        <v>https://down-th.img.susercontent.com/file/29a4c96e0870af39debf8a3e9c417a3e_tn</v>
+        <v>https://down-th.img.susercontent.com/file/cn-11134207-7r98o-lkyxz94su84ebb_tn</v>
       </c>
       <c r="C19" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D19" t="str">
-        <v>-2%</v>
+        <v>-93%</v>
       </c>
       <c r="E19" t="str">
-        <v/>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="F19" t="str">
-        <v>[E-Voucher] การีนาเชลล์ 450 Shells</v>
+        <v>【ของเล่นชิ้นเดียว】HG ปลอกสวมนิ้วมือ กันเหงื่อ สําหรับเล่นเกม เล่นเกม</v>
       </c>
       <c r="G19" t="str">
-        <v>฿300</v>
+        <v>-</v>
       </c>
       <c r="H19" t="str">
-        <v>294</v>
+        <v>25</v>
       </c>
       <c r="I19" t="str">
-        <v>ขายแล้ว 13.4พัน ชิ้น</v>
+        <v>ขายแล้ว 1.5พัน ชิ้น</v>
       </c>
       <c r="J19" t="str">
-        <v/>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="K19" t="str">
         <v/>
       </c>
       <c r="L19" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="M19" t="str">
-        <v/>
+        <v>125</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>https://shopee.co.th/BlueWow-WZT-%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%81%E0%B8%AA%E0%B8%A7%E0%B8%A1%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%80%E0%B8%AB%E0%B8%87%E0%B8%B7%E0%B9%88%E0%B8%AD-%E0%B8%A3%E0%B8%B0%E0%B8%9A%E0%B8%B2%E0%B8%A2%E0%B8%AD%E0%B8%B2%E0%B8%81%E0%B8%B2%E0%B8%A8-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B8%96%E0%B8%B7%E0%B8%AD-i.345343536.21641285135?sp_atk=194d1b33-3da9-496e-98c9-a89ab395d4b1&amp;xptdk=194d1b33-3da9-496e-98c9-a89ab395d4b1</v>
+        <v>https://shopee.co.th/Bluewow-%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%81%E0%B8%AA%E0%B8%A7%E0%B8%A1%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B8%A1%E0%B8%B7%E0%B8%AD-%E0%B8%A3%E0%B8%B0%E0%B8%9A%E0%B8%B2%E0%B8%A2%E0%B8%AD%E0%B8%B2%E0%B8%81%E0%B8%B2%E0%B8%A8-%E0%B8%97%E0%B8%99%E0%B8%97%E0%B8%B2%E0%B8%99-%E0%B8%AD%E0%B8%B8%E0%B8%9B%E0%B8%81%E0%B8%A3%E0%B8%93%E0%B9%8C%E0%B9%80%E0%B8%AA%E0%B8%A3%E0%B8%B4%E0%B8%A1-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1-%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B8%96%E0%B8%B7%E0%B8%AD-i.1166791125.24161519515?sp_atk=9fdfdacb-0b7e-4b11-a334-49e202d9b0b1&amp;xptdk=9fdfdacb-0b7e-4b11-a334-49e202d9b0b1</v>
       </c>
       <c r="B20" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-22120-8x09r640qzkv1e_tn</v>
+        <v>https://down-th.img.susercontent.com/file/cn-11134207-7r98o-lr44dkfm2wfh8f_tn</v>
       </c>
       <c r="C20" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D20" t="str">
-        <v>-28%</v>
+        <v>-89%</v>
       </c>
       <c r="E20" t="str">
         <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="F20" t="str">
-        <v>BlueWow WZT ปลอกสวมนิ้วมือเล่นเกม กันเหงื่อ ระบายอากาศ สําหรับเล่นเกมมือถือ</v>
+        <v>Bluewow ปลอกสวมนิ้วมือ ระบายอากาศ ทนทาน อุปกรณ์เสริม สําหรับเล่นเกม เล่นเกมมือถือ</v>
       </c>
       <c r="G20" t="str">
         <v>-</v>
       </c>
       <c r="H20" t="str">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I20" t="str">
-        <v>ขายแล้ว 14.7พัน ชิ้น</v>
+        <v>ขายแล้ว 201 ชิ้น</v>
       </c>
       <c r="J20" t="str">
         <v>ต่างประเทศ</v>
       </c>
       <c r="K20" t="str">
-        <v>฿</v>
+        <v/>
       </c>
       <c r="L20" t="str">
-        <v>65</v>
+        <v>฿</v>
       </c>
       <c r="M20" t="str">
-        <v>โค้ดลด ฿1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>https://shopee.co.th/Bluewow-%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%81%E0%B8%AA%E0%B8%A7%E0%B8%A1%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B8%A1%E0%B8%B7%E0%B8%AD-%E0%B8%A3%E0%B8%B0%E0%B8%9A%E0%B8%B2%E0%B8%A2%E0%B8%AD%E0%B8%B2%E0%B8%81%E0%B8%B2%E0%B8%A8-%E0%B8%97%E0%B8%99%E0%B8%97%E0%B8%B2%E0%B8%99-%E0%B8%AD%E0%B8%B8%E0%B8%9B%E0%B8%81%E0%B8%A3%E0%B8%93%E0%B9%8C%E0%B9%80%E0%B8%AA%E0%B8%A3%E0%B8%B4%E0%B8%A1-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1-%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B8%96%E0%B8%B7%E0%B8%AD-i.1166791125.24161519515?sp_atk=bde707f4-4e17-4c34-b01b-f26e4c353986&amp;xptdk=bde707f4-4e17-4c34-b01b-f26e4c353986</v>
+        <v>https://shopee.co.th/%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1-1%E0%B9%81%E0%B8%9E%E0%B9%87%E0%B8%84-2-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%AA%E0%B9%8C%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%81%E0%B8%97%E0%B9%89-%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%AA%E0%B9%8C%E0%B8%9F%E0%B8%B5%E0%B8%9F%E0%B8%B2%E0%B8%A2-%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%AA%E0%B9%8C-%E0%B8%97%E0%B8%B1%E0%B8%8A%E0%B8%A5%E0%B8%B7%E0%B9%88%E0%B8%99-%E0%B9%81%E0%B8%A1%E0%B9%88%E0%B8%99%E0%B8%A2%E0%B8%B3-i.481551189.22246094907?sp_atk=4d5dc040-6585-420d-826d-f8089bd078f1&amp;xptdk=4d5dc040-6585-420d-826d-f8089bd078f1</v>
       </c>
       <c r="B21" t="str">
-        <v>https://down-th.img.susercontent.com/file/cn-11134207-7r98o-lr44dkfm2wfh8f_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7qul1-li9wrd00wxap5c_tn</v>
       </c>
       <c r="C21" t="str">
         <v>ร้านแนะนำ</v>
       </c>
       <c r="D21" t="str">
-        <v>-89%</v>
+        <v>-92%</v>
       </c>
       <c r="E21" t="str">
         <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="F21" t="str">
-        <v>Bluewow ปลอกสวมนิ้วมือ ระบายอากาศ ทนทาน อุปกรณ์เสริม สําหรับเล่นเกม เล่นเกมมือถือ</v>
+        <v>ถุงนิ้วเล่นเกม 1แพ็ค 2 ชิ้น ถุงนิ้วเล่นเกมส์ของแท้ ถุงนิ้วเล่นเกมส์ฟีฟาย ถุงนิ้วเล่นเกมส์ ทัชลื่น แม่นยำ</v>
       </c>
       <c r="G21" t="str">
-        <v>-</v>
+        <v>฿12</v>
       </c>
       <c r="H21" t="str">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="I21" t="str">
-        <v>ขายแล้ว 186 ชิ้น</v>
+        <v>ขายแล้ว 14.3พัน ชิ้น</v>
       </c>
       <c r="J21" t="str">
-        <v>ต่างประเทศ</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K21" t="str">
-        <v>฿</v>
+        <v/>
       </c>
       <c r="L21" t="str">
-        <v>54</v>
+        <v/>
       </c>
       <c r="M21" t="str">
         <v/>
@@ -1237,72 +1237,72 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>https://shopee.co.th/Zkronsky-(2-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99)-%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1-%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99-Pubg-Rov-Call-of-duty-touch-%E0%B8%A2%E0%B8%B7%E0%B8%94%E0%B8%AB%E0%B8%94%E0%B9%84%E0%B8%94%E0%B9%89-i.291548354.8801889801?sp_atk=f2d7cf81-2329-4fbf-8537-fade67e46601&amp;xptdk=f2d7cf81-2329-4fbf-8537-fade67e46601</v>
+        <v>https://shopee.co.th/Bluewow-%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1-%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7-%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1-%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%AA%E0%B9%8C-%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%81%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7-%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%AA%E0%B9%8C-%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7-%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%99%E0%B8%B4%E0%B8%A7%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1-%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1ff-%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1-%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B9%84%E0%B8%9F%E0%B9%80%E0%B8%9A%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B8%99%E0%B8%B2%E0%B9%82%E0%B8%99-3D-%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2%E0%B8%88%E0%B8%AD%E0%B8%AA%E0%B8%B1%E0%B8%A1%E0%B8%9C%E0%B8%B1%E0%B8%AA-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%80%E0%B8%AB%E0%B8%87%E0%B8%B7%E0%B9%88%E0%B8%AD-%E0%B8%AA%E0%B8%B5%E0%B9%80%E0%B8%87%E0%B8%B4%E0%B8%99-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1-PUBG-i.1166791125.24459192235?sp_atk=94ad132f-dce0-4e51-b183-42647ab4a0fb&amp;xptdk=94ad132f-dce0-4e51-b183-42647ab4a0fb</v>
       </c>
       <c r="B22" t="str">
-        <v>https://down-th.img.susercontent.com/file/cn-11134207-7qukw-lj1fbfey5ksa43_tn</v>
+        <v>https://down-th.img.susercontent.com/file/cn-11134207-7r98o-lqn2hvzo386048_tn</v>
       </c>
       <c r="C22" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D22" t="str">
-        <v>-73%</v>
+        <v>-91%</v>
       </c>
       <c r="E22" t="str">
         <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="F22" t="str">
-        <v>Zkronsky (2 ชิ้น) ถุงนิ้วเล่นเกม เล่น Pubg Rov Call of duty touch ยืดหดได้</v>
+        <v>Bluewow ถุงนิ้วเล่นเกม ถุงนิ้ว ถุงมือเล่นเกม ถุงนิ้วเล่นเกมส์ ปลอกนิ้ว ถุงมือเล่นเกมส์ ถุงมือนิ้ว ถุงนิวเล่นเกม ถุงนิ้วเล่นเกมff ถุงมือเล่นเกม ถุงมือไฟเบอร์นาโน 3D หน้าจอสัมผัส กันเหงื่อ สีเงิน สําหรับเล่นเกม PUBG</v>
       </c>
       <c r="G22" t="str">
         <v>-</v>
       </c>
       <c r="H22" t="str">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I22" t="str">
-        <v>ขายแล้ว 21.5พัน ชิ้น</v>
+        <v>ขายแล้ว 213 ชิ้น</v>
       </c>
       <c r="J22" t="str">
         <v>ต่างประเทศ</v>
       </c>
       <c r="K22" t="str">
-        <v>฿</v>
+        <v/>
       </c>
       <c r="L22" t="str">
-        <v>49</v>
+        <v>฿</v>
       </c>
       <c r="M22" t="str">
-        <v/>
+        <v>89</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>https://shopee.co.th/K21-%E0%B8%88%E0%B8%AD%E0%B8%A2%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%AA%E0%B9%8C%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B8%96%E0%B8%B7%E0%B8%AD-%E0%B8%88%E0%B8%AD%E0%B8%A2%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B8%96%E0%B8%B7%E0%B8%AD-%E0%B8%88%E0%B8%B1%E0%B8%9A%E0%B8%96%E0%B8%99%E0%B8%B1%E0%B8%94%E0%B8%A1%E0%B8%B7%E0%B8%AD-%E0%B8%94%E0%B9%89%E0%B8%B2%E0%B8%A1%E0%B8%88%E0%B8%B1%E0%B8%9A%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%9B%E0%B8%B8%E0%B8%A1%E0%B8%A2%E0%B8%B4%E0%B8%87-PUBG-Free-Fire-Shooter-Controller-Mobile-Joystick-%E0%B8%88%E0%B8%AD%E0%B8%A2%E0%B9%80%E0%B8%81%E0%B8%A1-i.219249115.7715270599?sp_atk=0a3533b5-19fa-44e1-a63e-798e39c5bb23&amp;xptdk=0a3533b5-19fa-44e1-a63e-798e39c5bb23</v>
+        <v>https://shopee.co.th/K21-PUGB-4%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B9%80%E0%B8%8A%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%A1%E0%B8%95%E0%B9%88%E0%B8%AD%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%96%E0%B8%B7%E0%B8%AD%E0%B9%80%E0%B8%81%E0%B8%A1-%E0%B8%9B%E0%B8%B8%E0%B9%88%E0%B8%A1%E0%B8%96%E0%B9%88%E0%B8%B2%E0%B8%A2%E0%B8%A0%E0%B8%B2%E0%B8%9E-Controller-PUBG-%E0%B8%81%E0%B8%8E%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B8%81%E0%B8%B2%E0%B8%A3%E0%B8%AD%E0%B8%A2%E0%B8%B9%E0%B9%88%E0%B8%A3%E0%B8%AD%E0%B8%94%E0%B9%80%E0%B8%81%E0%B8%A1Trigger-%E0%B8%88%E0%B8%AD%E0%B8%A2%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B9%8A%E0%B8%81%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1-i.330344937.9733238964?sp_atk=de9e7041-09a6-430b-a309-bf376fe11dc5&amp;xptdk=de9e7041-09a6-430b-a309-bf376fe11dc5</v>
       </c>
       <c r="B23" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134201-7qukw-lkc3j67igz23b7_tn</v>
+        <v>https://down-th.img.susercontent.com/file/af8c9d2722054cd34f28b15f177bed58_tn</v>
       </c>
       <c r="C23" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D23" t="str">
-        <v>-98%</v>
+        <v>-50%</v>
       </c>
       <c r="E23" t="str">
         <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="F23" t="str">
-        <v>K21 จอยเกมส์มือถือ จอยเกมมือถือ จับถนัดมือ ด้ามจับพร้อมปุมยิง PUBG Free Fire Shooter Controller Mobile Joystick จอยเกม</v>
+        <v>K21 PUGB 4นิ้วเชื่อมต่อที่ถือเกม ปุ่มถ่ายภาพ Controller PUBG กฎของการอยู่รอดเกมTrigger จอยสติ๊กเล่นเกม</v>
       </c>
       <c r="G23" t="str">
-        <v>฿59</v>
+        <v>฿150</v>
       </c>
       <c r="H23" t="str">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="I23" t="str">
-        <v>ขายแล้ว 202 ชิ้น</v>
+        <v>ขายแล้ว 420 ชิ้น</v>
       </c>
       <c r="J23" t="str">
         <v>จังหวัดกรุงเทพมหานคร</v>
@@ -1319,75 +1319,75 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>https://shopee.co.th/Bluewow-%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1-%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7-%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1-%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%AA%E0%B9%8C-%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%81%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7-%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%AA%E0%B9%8C-%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7-%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%99%E0%B8%B4%E0%B8%A7%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1-%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1ff-%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1-%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B9%84%E0%B8%9F%E0%B9%80%E0%B8%9A%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B8%99%E0%B8%B2%E0%B9%82%E0%B8%99-3D-%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2%E0%B8%88%E0%B8%AD%E0%B8%AA%E0%B8%B1%E0%B8%A1%E0%B8%9C%E0%B8%B1%E0%B8%AA-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%80%E0%B8%AB%E0%B8%87%E0%B8%B7%E0%B9%88%E0%B8%AD-%E0%B8%AA%E0%B8%B5%E0%B9%80%E0%B8%87%E0%B8%B4%E0%B8%99-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1-PUBG-i.1166791125.24459192235?sp_atk=dd867ff0-d2ea-4992-9c0b-e448ae841e4c&amp;xptdk=dd867ff0-d2ea-4992-9c0b-e448ae841e4c</v>
+        <v>https://shopee.co.th/BlueWow-WZT-%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%81%E0%B8%AA%E0%B8%A7%E0%B8%A1%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%80%E0%B8%AB%E0%B8%87%E0%B8%B7%E0%B9%88%E0%B8%AD-%E0%B8%A3%E0%B8%B0%E0%B8%9A%E0%B8%B2%E0%B8%A2%E0%B8%AD%E0%B8%B2%E0%B8%81%E0%B8%B2%E0%B8%A8-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B8%96%E0%B8%B7%E0%B8%AD-i.345343536.21641285135?sp_atk=d1e75d94-5cd9-4f84-a1f1-e17a0d1f5db4&amp;xptdk=d1e75d94-5cd9-4f84-a1f1-e17a0d1f5db4</v>
       </c>
       <c r="B24" t="str">
-        <v>https://down-th.img.susercontent.com/file/cn-11134207-7r98o-lqn2hvzo386048_tn</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-22120-8x09r640qzkv1e_tn</v>
       </c>
       <c r="C24" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="D24" t="str">
-        <v>-91%</v>
+        <v>-28%</v>
       </c>
       <c r="E24" t="str">
         <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="F24" t="str">
-        <v>Bluewow ถุงนิ้วเล่นเกม ถุงนิ้ว ถุงมือเล่นเกม ถุงนิ้วเล่นเกมส์ ปลอกนิ้ว ถุงมือเล่นเกมส์ ถุงมือนิ้ว ถุงนิวเล่นเกม ถุงนิ้วเล่นเกมff ถุงมือเล่นเกม ถุงมือไฟเบอร์นาโน 3D หน้าจอสัมผัส กันเหงื่อ สีเงิน สําหรับเล่นเกม PUBG</v>
+        <v>BlueWow WZT ปลอกสวมนิ้วมือเล่นเกม กันเหงื่อ ระบายอากาศ สําหรับเล่นเกมมือถือ</v>
       </c>
       <c r="G24" t="str">
         <v>-</v>
       </c>
       <c r="H24" t="str">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I24" t="str">
-        <v>ขายแล้ว 199 ชิ้น</v>
+        <v>ขายแล้ว 14.7พัน ชิ้น</v>
       </c>
       <c r="J24" t="str">
         <v>ต่างประเทศ</v>
       </c>
       <c r="K24" t="str">
-        <v>฿</v>
+        <v>โค้ดลด ฿1</v>
       </c>
       <c r="L24" t="str">
-        <v>89</v>
+        <v>฿</v>
       </c>
       <c r="M24" t="str">
-        <v/>
+        <v>65</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>https://shopee.co.th/K21-PUGB-4%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B9%80%E0%B8%8A%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%A1%E0%B8%95%E0%B9%88%E0%B8%AD%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%96%E0%B8%B7%E0%B8%AD%E0%B9%80%E0%B8%81%E0%B8%A1-%E0%B8%9B%E0%B8%B8%E0%B9%88%E0%B8%A1%E0%B8%96%E0%B9%88%E0%B8%B2%E0%B8%A2%E0%B8%A0%E0%B8%B2%E0%B8%9E-Controller-PUBG-%E0%B8%81%E0%B8%8E%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B8%81%E0%B8%B2%E0%B8%A3%E0%B8%AD%E0%B8%A2%E0%B8%B9%E0%B9%88%E0%B8%A3%E0%B8%AD%E0%B8%94%E0%B9%80%E0%B8%81%E0%B8%A1Trigger-%E0%B8%88%E0%B8%AD%E0%B8%A2%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B9%8A%E0%B8%81%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1-i.330344937.9733238964?sp_atk=3c5976cd-349a-497e-9a8b-e1da4f723aa4&amp;xptdk=3c5976cd-349a-497e-9a8b-e1da4f723aa4</v>
+        <v>https://shopee.co.th/Aa-%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B9%81%E0%B8%9E%E0%B8%94%E0%B8%84%E0%B8%A7%E0%B8%9A%E0%B8%84%E0%B8%B8%E0%B8%A1%E0%B9%80%E0%B8%81%E0%B8%A1-%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B9%84%E0%B8%A3%E0%B9%89%E0%B8%AA%E0%B8%B2%E0%B8%A2-2.4GHz-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A-PS3-PC-TV-Box-TH-i.272826975.22574855061?sp_atk=d10c1b1a-c4e5-4be2-b09e-5d0cae0197d6&amp;xptdk=d10c1b1a-c4e5-4be2-b09e-5d0cae0197d6</v>
       </c>
       <c r="B25" t="str">
-        <v>https://down-th.img.susercontent.com/file/af8c9d2722054cd34f28b15f177bed58_tn</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-7qve3-ljkzsm8wzny679_tn</v>
       </c>
       <c r="C25" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="D25" t="str">
-        <v>-50%</v>
+        <v>-46%</v>
       </c>
       <c r="E25" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+        <v/>
       </c>
       <c r="F25" t="str">
-        <v>K21 PUGB 4นิ้วเชื่อมต่อที่ถือเกม ปุ่มถ่ายภาพ Controller PUBG กฎของการอยู่รอดเกมTrigger จอยสติ๊กเล่นเกม</v>
+        <v>Aa เกมแพดควบคุมเกม แบบไร้สาย 2.4GHz สําหรับ PS3 PC TV Box TH</v>
       </c>
       <c r="G25" t="str">
-        <v>฿150</v>
+        <v>฿240</v>
       </c>
       <c r="H25" t="str">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="I25" t="str">
-        <v>ขายแล้ว 418 ชิ้น</v>
+        <v>ขายแล้ว 141 ชิ้น</v>
       </c>
       <c r="J25" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="K25" t="str">
         <v/>
@@ -1401,34 +1401,34 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>https://shopee.co.th/%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%81%E0%B8%AA%E0%B8%A7%E0%B8%A1%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1-%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1-1-%E0%B8%84%E0%B8%B9%E0%B9%88-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%80%E0%B8%AB%E0%B8%87%E0%B8%B7%E0%B9%88%E0%B8%AD-%E0%B8%A3%E0%B8%B0%E0%B8%9A%E0%B8%B2%E0%B8%A2%E0%B8%AD%E0%B8%B2%E0%B8%81%E0%B8%B2%E0%B8%A8-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B8%96%E0%B8%B7%E0%B8%AD-i.894802584.23071399700?sp_atk=8efb6515-a5a1-486c-a92b-657cdaffa5fc&amp;xptdk=8efb6515-a5a1-486c-a92b-657cdaffa5fc</v>
+        <v>https://shopee.co.th/-E-Voucher-%E0%B8%81%E0%B8%B2%E0%B8%A3%E0%B8%B5%E0%B8%99%E0%B8%B2%E0%B9%80%E0%B8%8A%E0%B8%A5%E0%B8%A5%E0%B9%8C-225-Shells-i.45810617.15789650094?sp_atk=75d3e6ad-80f9-49f2-8f64-8ff0a6ad8818&amp;xptdk=75d3e6ad-80f9-49f2-8f64-8ff0a6ad8818</v>
       </c>
       <c r="B26" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7qukw-li74s5zeu5ch54_tn</v>
+        <v>https://down-th.img.susercontent.com/file/788122169922778adb961f77ad47dcd8_tn</v>
       </c>
       <c r="C26" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="D26" t="str">
-        <v>-43%</v>
+        <v>-2%</v>
       </c>
       <c r="E26" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
+        <v/>
       </c>
       <c r="F26" t="str">
-        <v>ปลอกสวมนิ้วมือเล่นเกม ถุงนิ้วเล่นเกม 1 คู่ กันเหงื่อ ระบายอากาศ สําหรับเล่นเกมมือถือ</v>
+        <v>[E-Voucher] การีนาเชลล์ 225 Shells</v>
       </c>
       <c r="G26" t="str">
-        <v>฿7</v>
+        <v>฿150</v>
       </c>
       <c r="H26" t="str">
-        <v>4</v>
+        <v>147</v>
       </c>
       <c r="I26" t="str">
-        <v>ขายแล้ว 4.7พัน ชิ้น</v>
+        <v>ขายแล้ว 17.2พัน ชิ้น</v>
       </c>
       <c r="J26" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v/>
       </c>
       <c r="K26" t="str">
         <v/>
@@ -1442,37 +1442,37 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>https://shopee.co.th/%E2%9A%94-CH-5-%E0%B8%88%E0%B8%AD%E0%B8%A2-PUBG-1-%E0%B8%84%E0%B8%B9%E0%B9%88-BLUE-SHARK-%E0%B8%88%E0%B8%AD%E0%B8%A2%E0%B8%89%E0%B8%A5%E0%B8%B2%E0%B8%A1-i.271171871.4138977991?sp_atk=8bcfe2e3-ac80-4bcb-9d49-483824cb3f38&amp;xptdk=8bcfe2e3-ac80-4bcb-9d49-483824cb3f38</v>
+        <v>https://shopee.co.th/ps2-gamepad-%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%A1%E0%B8%B5%E0%B8%AA%E0%B8%B2%E0%B8%A2-%E0%B8%95%E0%B8%B1%E0%B8%A7%E0%B8%84%E0%B8%A7%E0%B8%9A%E0%B8%84%E0%B8%B8%E0%B8%A1%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%AA%E0%B8%B1%E0%B9%88%E0%B8%99%E0%B8%AA%E0%B8%B0%E0%B9%80%E0%B8%97%E0%B8%B7%E0%B8%AD%E0%B8%99%E0%B9%80%E0%B8%94%E0%B8%B5%E0%B8%A2%E0%B8%A7-i.509283195.16545428669?sp_atk=f42cc247-864a-4d52-ba4b-c7f2a9130156&amp;xptdk=f42cc247-864a-4d52-ba4b-c7f2a9130156</v>
       </c>
       <c r="B27" t="str">
-        <v>https://down-th.img.susercontent.com/file/5759aa83119f431d59235b048c783aed_tn</v>
+        <v>https://down-th.img.susercontent.com/file/d99e9a44ceee2fc2ae62efa0b4dff3dc_tn</v>
       </c>
       <c r="C27" t="str">
         <v/>
       </c>
       <c r="D27" t="str">
-        <v>-80%</v>
+        <v>-35%</v>
       </c>
       <c r="E27" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="F27" t="str">
-        <v>⚔ CH-5 จอย PUBG 1 คู่ BLUE SHARK จอยฉลาม</v>
+        <v>ps2 gamepad แบบมีสาย ตัวควบคุมเกมแบบสั่นสะเทือนเดียว</v>
       </c>
       <c r="G27" t="str">
-        <v>฿199</v>
+        <v>฿153</v>
       </c>
       <c r="H27" t="str">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="I27" t="str">
-        <v>ขายแล้ว 1.3พัน ชิ้น</v>
+        <v>ขายแล้ว 1.8พัน ชิ้น</v>
       </c>
       <c r="J27" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>จังหวัดระยอง</v>
       </c>
       <c r="K27" t="str">
-        <v/>
+        <v>โค้ดลด ฿5</v>
       </c>
       <c r="L27" t="str">
         <v/>
@@ -1483,81 +1483,81 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>https://shopee.co.th/ASUS-ROG-ALLY-(RC71L-NH001W)-Gaming-handheld-7-inch-1080p(Full-HD)-120Hz-100-sRGB-FreeSync-Premium-AMD-Z1-Extreme-VGA-Navi3-16GB-LPDDR5-512GB-PCIe-4.0-NVMe-M.2-SSD-Windows11-Home-i.43576771.16295348255?sp_atk=98a9dc17-04a0-48f4-95bc-67ebf8016987&amp;xptdk=98a9dc17-04a0-48f4-95bc-67ebf8016987</v>
+        <v>https://shopee.co.th/%E3%80%90Goku-Fallen-Angel-naruto%E3%80%91%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%81%E0%B8%AA%E0%B8%A7%E0%B8%A1%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B9%82%E0%B8%9B%E0%B9%89%E0%B8%87-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%A5%E0%B8%B7%E0%B9%88%E0%B8%99-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%80%E0%B8%AB%E0%B8%87%E0%B8%B7%E0%B9%88%E0%B8%AD-%E0%B8%A3%E0%B8%B0%E0%B8%9A%E0%B8%B2%E0%B8%A2%E0%B8%AD%E0%B8%B2%E0%B8%81%E0%B8%B2%E0%B8%A8-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B8%96%E0%B8%B7%E0%B8%AD-PUBG-i.853055097.22504556746?sp_atk=c17c3c1d-99dd-4ff1-bfb9-f7a50adf0c5b&amp;xptdk=c17c3c1d-99dd-4ff1-bfb9-f7a50adf0c5b</v>
       </c>
       <c r="B28" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7qul1-ljc9f7sel66p6c_tn</v>
+        <v>https://down-th.img.susercontent.com/file/cn-11134207-7qukw-lk9atm6erq9y89_tn</v>
       </c>
       <c r="C28" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D28" t="str">
-        <v/>
+        <v>-70%</v>
       </c>
       <c r="E28" t="str">
-        <v/>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="F28" t="str">
-        <v>ASUS ROG ALLY (RC71L-NH001W), Gaming handheld, 7-inch 1080p(Full HD) 120Hz, 100% sRGB, FreeSync Premium, AMD Z1-Extreme, VGA-Navi3, 16GB LPDDR5, 512GB PCIe 4.0 NVMe M.2 SSD, Windows11 Home</v>
+        <v>【Goku/Fallen Angel/naruto】ปลอกสวมนิ้วโป้ง กันลื่น กันเหงื่อ ระบายอากาศ สําหรับเล่นเกมมือถือ PUBG</v>
       </c>
       <c r="G28" t="str">
-        <v/>
+        <v>-</v>
       </c>
       <c r="H28" t="str">
-        <v>24,990</v>
+        <v>14</v>
       </c>
       <c r="I28" t="str">
-        <v>ขายแล้ว 560 ชิ้น</v>
+        <v>ขายแล้ว 5.1พัน ชิ้น</v>
       </c>
       <c r="J28" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="K28" t="str">
-        <v/>
+        <v>โค้ดลด ฿1</v>
       </c>
       <c r="L28" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="M28" t="str">
-        <v/>
+        <v>63</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>https://shopee.co.th/%E0%B8%88%E0%B8%AD%E0%B8%A2%E0%B9%80%E0%B8%81%E0%B8%A1-%E0%B8%9A%E0%B8%A5%E0%B8%B9%E0%B8%97%E0%B8%B9%E0%B8%98%E0%B9%84%E0%B8%A3%E0%B9%89%E0%B8%AA%E0%B8%B2%E0%B8%A2-%E0%B9%81%E0%B8%9B%E0%B9%89%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%9A%E0%B8%A5%E0%B8%B9%E0%B8%97%E0%B8%B9%E0%B8%98-Game-Controller-for-Android-ios-%E0%B8%88%E0%B8%AD%E0%B8%A2%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B9%8A%E0%B8%81%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2-JOY-Bluetooth-%E0%B8%A1%E0%B8%B5%E0%B8%AB%E0%B8%A5%E0%B8%B2%E0%B8%A2%E0%B8%A3%E0%B8%B8%E0%B9%88%E0%B8%99%E0%B8%A1%E0%B8%B5%E0%B9%80%E0%B8%A5%E0%B8%B7%E0%B8%AD%E0%B8%81-i.933534332.23417219458?sp_atk=7941b79a-924a-4080-8113-1b9956a471a8&amp;xptdk=7941b79a-924a-4080-8113-1b9956a471a8</v>
+        <v>https://shopee.co.th/(%E0%B8%A5%E0%B8%B4%E0%B9%89%E0%B8%871)-%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B8%81%E0%B9%80%E0%B8%81%E0%B8%AD%E0%B8%A3%E0%B9%8C-Light-Bar-PS4-i.21014904.2653263922?sp_atk=9a65daa7-cd8f-4271-b79a-ad3f8c5ef21a&amp;xptdk=9a65daa7-cd8f-4271-b79a-ad3f8c5ef21a</v>
       </c>
       <c r="B29" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7qul3-lfvxy9prdz4fbf_tn</v>
+        <v>https://down-th.img.susercontent.com/file/bcd9d0eb8523c320318b41eb1628e3f7_tn</v>
       </c>
       <c r="C29" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D29" t="str">
-        <v>-63%</v>
+        <v/>
       </c>
       <c r="E29" t="str">
         <v/>
       </c>
       <c r="F29" t="str">
-        <v>จอยเกม บลูทูธไร้สาย แป้นเกมบลูทูธ Game Controller for Android ios จอยสติ๊กแบบพกพา JOY Bluetooth มีหลายรุ่นมีเลือก</v>
+        <v>(ลิ้ง1) สติกเกอร์ Light Bar PS4</v>
       </c>
       <c r="G29" t="str">
-        <v>-</v>
+        <v/>
       </c>
       <c r="H29" t="str">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I29" t="str">
-        <v>ขายแล้ว 718 ชิ้น</v>
+        <v>ขายแล้ว 5พัน ชิ้น</v>
       </c>
       <c r="J29" t="str">
         <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K29" t="str">
-        <v>฿</v>
+        <v/>
       </c>
       <c r="L29" t="str">
-        <v>185</v>
+        <v/>
       </c>
       <c r="M29" t="str">
         <v/>
@@ -1565,40 +1565,40 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>https://shopee.co.th/%F0%9F%92%A5-%E0%B8%88%E0%B8%AD%E0%B8%A2%E0%B8%84%E0%B8%A3%E0%B8%AD%E0%B8%9A%E0%B8%88%E0%B8%B1%E0%B8%81%E0%B8%A3%E0%B8%A7%E0%B8%B2%E0%B8%A5-V.4-%E0%B8%88%E0%B8%AD%E0%B8%A2-BSP-D3-%E0%B8%A3%E0%B8%AD%E0%B8%87%E0%B8%A3%E0%B8%B1%E0%B8%9A-iOS-Android-%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%81%E0%B8%B1%E0%B8%991%E0%B8%9B%E0%B8%B5-%F0%9F%92%A5%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B9%84%E0%B8%A71%E0%B8%A7%E0%B8%B1%E0%B8%99-i.258612544.21772989591?sp_atk=bdddb677-ad06-470e-83d1-eb49b54ba51a&amp;xptdk=bdddb677-ad06-470e-83d1-eb49b54ba51a</v>
+        <v>https://shopee.co.th/%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%81%E0%B8%AA%E0%B8%A7%E0%B8%A1%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1-%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1-1-%E0%B8%84%E0%B8%B9%E0%B9%88-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%80%E0%B8%AB%E0%B8%87%E0%B8%B7%E0%B9%88%E0%B8%AD-%E0%B8%A3%E0%B8%B0%E0%B8%9A%E0%B8%B2%E0%B8%A2%E0%B8%AD%E0%B8%B2%E0%B8%81%E0%B8%B2%E0%B8%A8-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B8%96%E0%B8%B7%E0%B8%AD-i.894802584.23071399700?sp_atk=ab3ab130-9951-4823-b609-7bfbcf81c923&amp;xptdk=ab3ab130-9951-4823-b609-7bfbcf81c923</v>
       </c>
       <c r="B30" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98s-llyeco6vjwnba7_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7qukw-li74s5zeu5ch54_tn</v>
       </c>
       <c r="C30" t="str">
         <v>ร้านแนะนำ</v>
       </c>
       <c r="D30" t="str">
-        <v/>
+        <v>-43%</v>
       </c>
       <c r="E30" t="str">
-        <v/>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="F30" t="str">
-        <v>💥 จอยครอบจักรวาล V.4  จอย BSP-D3 รองรับ iOS Android ประกัน1ปี 💥ส่งไว1วัน</v>
+        <v>ปลอกสวมนิ้วมือเล่นเกม ถุงนิ้วเล่นเกม 1 คู่ กันเหงื่อ ระบายอากาศ สําหรับเล่นเกมมือถือ</v>
       </c>
       <c r="G30" t="str">
-        <v>-</v>
+        <v>฿7</v>
       </c>
       <c r="H30" t="str">
-        <v>329</v>
+        <v>4</v>
       </c>
       <c r="I30" t="str">
-        <v>ขายแล้ว 4.9พัน ชิ้น</v>
+        <v>ขายแล้ว 4.7พัน ชิ้น</v>
       </c>
       <c r="J30" t="str">
-        <v>จังหวัดนนทบุรี</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K30" t="str">
-        <v>฿</v>
+        <v/>
       </c>
       <c r="L30" t="str">
-        <v>379</v>
+        <v/>
       </c>
       <c r="M30" t="str">
         <v/>
@@ -1606,122 +1606,122 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>https://shopee.co.th/%E3%80%90%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99%E0%B9%80%E0%B8%94%E0%B8%B5%E0%B8%A2%E0%B8%A7%E3%80%91HG-%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%81%E0%B8%AA%E0%B8%A7%E0%B8%A1%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B8%A1%E0%B8%B7%E0%B8%AD-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%80%E0%B8%AB%E0%B8%87%E0%B8%B7%E0%B9%88%E0%B8%AD-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1-%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1-i.1040209476.21992407005?sp_atk=8581e815-ab66-4437-aa88-46c211b0e31a&amp;xptdk=8581e815-ab66-4437-aa88-46c211b0e31a</v>
+        <v>https://shopee.co.th/%F0%9F%94%A5-BSP-D3-%E0%B8%88%E0%B8%AD%E0%B8%A2%E0%B8%84%E0%B8%A3%E0%B8%AD%E0%B8%9A%E0%B8%88%E0%B8%B1%E0%B8%81%E0%B8%A3%E0%B8%A7%E0%B8%B2%E0%B8%A5-V.4-%E0%B8%A3%E0%B8%AD%E0%B8%87%E0%B8%A3%E0%B8%B1%E0%B8%9A-iOS-Android-%F0%9F%94%A5%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B9%84%E0%B8%A7-%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%81%E0%B8%B1%E0%B8%991%E0%B8%9B%E0%B8%B5-i.258612544.21676795151?sp_atk=007599f3-125f-4896-8aa5-4c6373492f7b&amp;xptdk=007599f3-125f-4896-8aa5-4c6373492f7b</v>
       </c>
       <c r="B31" t="str">
-        <v>https://down-th.img.susercontent.com/file/cn-11134207-7r98o-lkyxz94su84ebb_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r992-llyeco6vlb7r57_tn</v>
       </c>
       <c r="C31" t="str">
         <v>ร้านแนะนำ</v>
       </c>
       <c r="D31" t="str">
-        <v>-93%</v>
+        <v/>
       </c>
       <c r="E31" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+        <v/>
       </c>
       <c r="F31" t="str">
-        <v>【ของเล่นชิ้นเดียว】HG ปลอกสวมนิ้วมือ กันเหงื่อ สําหรับเล่นเกม เล่นเกม</v>
+        <v>🔥 BSP-D3 จอยครอบจักรวาล V.4 รองรับ iOS Android 🔥ส่งไว ประกัน1ปี</v>
       </c>
       <c r="G31" t="str">
         <v>-</v>
       </c>
       <c r="H31" t="str">
-        <v>25</v>
+        <v>329</v>
       </c>
       <c r="I31" t="str">
-        <v>ขายแล้ว 1.5พัน ชิ้น</v>
+        <v>ขายแล้ว 1.7พัน ชิ้น</v>
       </c>
       <c r="J31" t="str">
-        <v>ต่างประเทศ</v>
+        <v>จังหวัดนนทบุรี</v>
       </c>
       <c r="K31" t="str">
-        <v>฿</v>
+        <v/>
       </c>
       <c r="L31" t="str">
-        <v>125</v>
+        <v>฿</v>
       </c>
       <c r="M31" t="str">
-        <v/>
+        <v>369</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>https://shopee.co.th/-Genshin-Bluewow-%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B8%84%E0%B8%A7%E0%B8%9A%E0%B8%84%E0%B8%B8%E0%B8%A1%E0%B9%80%E0%B8%81%E0%B8%A1-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%80%E0%B8%AB%E0%B8%87%E0%B8%B7%E0%B9%88%E0%B8%AD-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A-Genshin-PUBG-i.1166791125.25159557912?sp_atk=95d399cb-b071-457c-acab-7da0d5476461&amp;xptdk=95d399cb-b071-457c-acab-7da0d5476461</v>
+        <v>https://shopee.co.th/Bluewow-%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%81%E0%B8%AA%E0%B8%A7%E0%B8%A1%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B8%AB%E0%B8%B1%E0%B8%A7%E0%B9%81%E0%B8%A1%E0%B9%88%E0%B8%A1%E0%B8%B7%E0%B8%AD-%E0%B9%84%E0%B8%9F%E0%B9%80%E0%B8%9A%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B8%A3%E0%B8%B0%E0%B8%9A%E0%B8%B2%E0%B8%A2%E0%B8%AD%E0%B8%B2%E0%B8%81%E0%B8%B2%E0%B8%A8-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%80%E0%B8%AB%E0%B8%87%E0%B8%B7%E0%B9%88%E0%B8%AD-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%AA%E0%B9%8C-i.345343536.22452140469?sp_atk=cea69667-81f9-4e0e-89e0-5a69a29bce0c&amp;xptdk=cea69667-81f9-4e0e-89e0-5a69a29bce0c</v>
       </c>
       <c r="B32" t="str">
-        <v>https://down-th.img.susercontent.com/file/cn-11134207-7r98o-lsi2f6jjt61p7b_tn</v>
+        <v>https://down-th.img.susercontent.com/file/cn-11134207-7r98o-lkq5ww44xm8xb6_tn</v>
       </c>
       <c r="C32" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="D32" t="str">
-        <v>-93%</v>
+        <v>-86%</v>
       </c>
       <c r="E32" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-dfe02b2e2296fa17d79fc513bfadb4da</v>
       </c>
       <c r="F32" t="str">
-        <v>[Genshin] Bluewow ถุงมือควบคุมเกม กันเหงื่อ สําหรับ Genshin PUBG</v>
+        <v>Bluewow ปลอกสวมนิ้วหัวแม่มือ ไฟเบอร์ ระบายอากาศ กันเหงื่อ สําหรับเล่นเกมส์</v>
       </c>
       <c r="G32" t="str">
         <v>-</v>
       </c>
       <c r="H32" t="str">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I32" t="str">
-        <v>ขายแล้ว 106 ชิ้น</v>
+        <v>ขายแล้ว 3.4พัน ชิ้น</v>
       </c>
       <c r="J32" t="str">
         <v>ต่างประเทศ</v>
       </c>
       <c r="K32" t="str">
-        <v>฿</v>
+        <v>โค้ดลด ฿1</v>
       </c>
       <c r="L32" t="str">
-        <v>65</v>
+        <v>฿</v>
       </c>
       <c r="M32" t="str">
-        <v/>
+        <v>77</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>https://shopee.co.th/R11-%E0%B8%9B%E0%B8%B8%E0%B9%88%E0%B8%A1%E0%B8%8A%E0%B9%88%E0%B8%A7%E0%B8%A2%E0%B8%A2%E0%B8%B4%E0%B8%87-%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1-%E0%B8%88%E0%B8%AD%E0%B8%A2%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%AA%E0%B9%8C%E0%B8%AA%E0%B8%B3%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B8%96%E0%B8%B7%E0%B8%AD-%E0%B8%9B%E0%B8%B8%E0%B9%88%E0%B8%A1%E0%B9%82%E0%B8%A5%E0%B8%AB%E0%B8%B0-%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2%E0%B8%87%E0%B9%88%E0%B8%B2%E0%B8%A2-%E0%B8%AA%E0%B8%B0%E0%B8%94%E0%B8%A7%E0%B8%81-%E0%B8%9E%E0%B8%B1%E0%B8%92%E0%B8%99%E0%B8%B2%E0%B8%9D%E0%B8%B5%E0%B8%A1%E0%B8%B7%E0%B8%AD-pubg-freefire-rov-fifa-%E0%B8%88%E0%B8%AD%E0%B8%A2%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%AA%E0%B9%8C-i.151451444.18248763739?sp_atk=21d0631e-3a7a-4fce-a196-e934a180ef8f&amp;xptdk=21d0631e-3a7a-4fce-a196-e934a180ef8f</v>
+        <v>https://shopee.co.th/-E-Voucher-%E0%B8%81%E0%B8%B2%E0%B8%A3%E0%B8%B5%E0%B8%99%E0%B8%B2%E0%B9%80%E0%B8%8A%E0%B8%A5%E0%B8%A5%E0%B9%8C-135-Shells-i.45810617.21522636794?sp_atk=8c32654b-a4c5-4123-8c0a-3f466d2b187a&amp;xptdk=8c32654b-a4c5-4123-8c0a-3f466d2b187a</v>
       </c>
       <c r="B33" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-22090-buhlpd2qbthv34_tn</v>
+        <v>https://down-th.img.susercontent.com/file/f4ec4207191d34aa28f3f559f821becd_tn</v>
       </c>
       <c r="C33" t="str">
         <v/>
       </c>
       <c r="D33" t="str">
-        <v/>
+        <v>-2%</v>
       </c>
       <c r="E33" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+        <v/>
       </c>
       <c r="F33" t="str">
-        <v>R11 ปุ่มช่วยยิง ถุงนิ้วเล่นเกม จอยเกมส์สำหรับมือถือ ปุ่มโลหะ พกพาง่าย สะดวก พัฒนาฝีมือ pubg freefire rov fifa จอยเกมส์</v>
+        <v>[E-Voucher] การีนาเชลล์ 135 Shells</v>
       </c>
       <c r="G33" t="str">
-        <v>-</v>
+        <v>฿90</v>
       </c>
       <c r="H33" t="str">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="I33" t="str">
-        <v>ขายแล้ว 1.5พัน ชิ้น</v>
+        <v>ขายแล้ว 13.5พัน ชิ้น</v>
       </c>
       <c r="J33" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v/>
       </c>
       <c r="K33" t="str">
-        <v>฿</v>
+        <v/>
       </c>
       <c r="L33" t="str">
-        <v>42</v>
+        <v/>
       </c>
       <c r="M33" t="str">
         <v/>
@@ -1729,34 +1729,34 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>https://shopee.co.th/Zkronsky-%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%AA%E0%B9%8C-(1%E0%B9%81%E0%B8%9E%E0%B9%87%E0%B8%84-2-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99)-%E0%B8%A1%E0%B8%B5%E0%B9%83%E0%B8%AB%E0%B9%89%E0%B9%80%E0%B8%A5%E0%B8%B7%E0%B8%AD%E0%B8%81-3-%E0%B9%80%E0%B8%81%E0%B8%A3%E0%B8%94-%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B8%AA%E0%B8%B3%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1-%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%A1%E0%B8%B4%E0%B9%88%E0%B8%87-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%A5%E0%B8%B7%E0%B9%88%E0%B8%99%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B8%9B%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%80%E0%B8%AB%E0%B8%87%E0%B8%B7%E0%B9%88%E0%B8%AD-%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1-Pubg-Rov-Call-of-duty-%E0%B8%97%E0%B8%B1%E0%B8%8A%E0%B8%A5%E0%B8%B7%E0%B9%88%E0%B8%99-%E0%B9%81%E0%B8%A1%E0%B9%88%E0%B8%99%E0%B8%A2%E0%B8%B3-i.291548354.18611693822?sp_atk=91bf954a-aef9-43b9-b0a5-4238c205e81e&amp;xptdk=91bf954a-aef9-43b9-b0a5-4238c205e81e</v>
+        <v>https://shopee.co.th/K21-%E0%B8%88%E0%B8%AD%E0%B8%A2%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%AA%E0%B9%8C%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B8%96%E0%B8%B7%E0%B8%AD-%E0%B8%88%E0%B8%AD%E0%B8%A2%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B8%96%E0%B8%B7%E0%B8%AD-%E0%B8%88%E0%B8%B1%E0%B8%9A%E0%B8%96%E0%B8%99%E0%B8%B1%E0%B8%94%E0%B8%A1%E0%B8%B7%E0%B8%AD-%E0%B8%94%E0%B9%89%E0%B8%B2%E0%B8%A1%E0%B8%88%E0%B8%B1%E0%B8%9A%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%9B%E0%B8%B8%E0%B8%A1%E0%B8%A2%E0%B8%B4%E0%B8%87-PUBG-Free-Fire-Shooter-Controller-Mobile-Joystick-%E0%B8%88%E0%B8%AD%E0%B8%A2%E0%B9%80%E0%B8%81%E0%B8%A1-i.219249115.7715270599?sp_atk=ce46b84d-fcb5-4066-8a00-edc844be6252&amp;xptdk=ce46b84d-fcb5-4066-8a00-edc844be6252</v>
       </c>
       <c r="B34" t="str">
-        <v>https://down-th.img.susercontent.com/file/cn-11134207-7qukw-lj1fbfey467u9b_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134201-7qukw-lkc3j67igz23b7_tn</v>
       </c>
       <c r="C34" t="str">
         <v/>
       </c>
       <c r="D34" t="str">
-        <v>-95%</v>
+        <v>-98%</v>
       </c>
       <c r="E34" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="F34" t="str">
-        <v>Zkronsky ถุงนิ้วเล่นเกมส์ (1แพ็ค 2 ชิ้น) มีให้เลือก 3 เกรด ถุงนิ้วสำหรับเล่นเกม เกมมิ่ง กันลื่นและป้องกันเหงื่อ ถุงมือเล่นเกม Pubg Rov Call of duty ทัชลื่น แม่นยำ</v>
+        <v>K21 จอยเกมส์มือถือ จอยเกมมือถือ จับถนัดมือ ด้ามจับพร้อมปุมยิง PUBG Free Fire Shooter Controller Mobile Joystick จอยเกม</v>
       </c>
       <c r="G34" t="str">
-        <v>฿252</v>
+        <v>฿59</v>
       </c>
       <c r="H34" t="str">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="I34" t="str">
-        <v>ขายแล้ว 16.1พัน ชิ้น</v>
+        <v>ขายแล้ว 204 ชิ้น</v>
       </c>
       <c r="J34" t="str">
-        <v>ต่างประเทศ</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K34" t="str">
         <v/>
@@ -1770,122 +1770,122 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>https://shopee.co.th/%E0%B9%84%E0%B8%AD%E0%B8%94%E0%B8%B5%E0%B9%84%E0%B8%81%E0%B9%88%E0%B8%95%E0%B8%B1%E0%B8%99BloxFruit%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%81%E0%B8%A3%E0%B8%AA%E0%B8%B8%E0%B9%88%E0%B8%A1%E0%B9%80%E0%B8%9C%E0%B9%88%E0%B8%B2%E0%B8%A7%E0%B8%B54%E0%B8%AA%E0%B8%B8%E0%B8%94%E0%B9%82%E0%B8%AB%E0%B8%94-6%E0%B8%AB%E0%B8%A1%E0%B8%B1%E0%B8%94-%E0%B9%82%E0%B8%A1%E0%B8%88%E0%B8%B4%E0%B8%95%E0%B8%B7%E0%B9%88%E0%B8%99-%E0%B9%80%E0%B8%9C%E0%B9%88%E0%B8%B2V4-i.967757196.22931411908?sp_atk=5d32089b-aac8-4d9a-ac97-7ac9b38af1e7&amp;xptdk=5d32089b-aac8-4d9a-ac97-7ac9b38af1e7</v>
+        <v>https://shopee.co.th/Hx-%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%81%E0%B8%AA%E0%B8%A7%E0%B8%A1%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B8%AB%E0%B8%B1%E0%B8%A7%E0%B9%81%E0%B8%A1%E0%B9%88%E0%B8%A1%E0%B8%B7%E0%B8%AD-%E0%B8%A3%E0%B8%B0%E0%B8%9A%E0%B8%B2%E0%B8%A2%E0%B8%AD%E0%B8%B2%E0%B8%81%E0%B8%B2%E0%B8%A8-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%80%E0%B8%AB%E0%B8%87%E0%B8%B7%E0%B9%88%E0%B8%AD-%E0%B8%A5%E0%B8%B2%E0%B8%A2%E0%B8%AB%E0%B8%B1%E0%B8%A7%E0%B8%81%E0%B8%B0%E0%B9%82%E0%B8%AB%E0%B8%A5%E0%B8%81%E0%B8%A5%E0%B8%B9%E0%B8%9F%E0%B8%B5%E0%B9%88-One-Piece-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1-i.1078278409.25454309337?sp_atk=c6ad01f8-0aeb-4a39-9111-34bbb1fd8b94&amp;xptdk=c6ad01f8-0aeb-4a39-9111-34bbb1fd8b94</v>
       </c>
       <c r="B35" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r990-ls2eyss8qe0e01_tn</v>
+        <v>https://down-th.img.susercontent.com/file/cn-11134207-7r98o-lpj6vaxrstbz95_tn</v>
       </c>
       <c r="C35" t="str">
         <v>ร้านแนะนำ</v>
       </c>
       <c r="D35" t="str">
-        <v/>
+        <v>-89%</v>
       </c>
       <c r="E35" t="str">
-        <v/>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="F35" t="str">
-        <v>ไอดีไก่ตันBloxFruitของแรสุ่มเผ่าวี4สุดโหด/6หมัด/โมจิตื่น/เผ่าV4</v>
+        <v>Hx ปลอกสวมนิ้วหัวแม่มือ ระบายอากาศ กันเหงื่อ ลายหัวกะโหลกลูฟี่ One Piece สําหรับเล่นเกม</v>
       </c>
       <c r="G35" t="str">
-        <v/>
+        <v>-</v>
       </c>
       <c r="H35" t="str">
-        <v>179</v>
+        <v>16</v>
       </c>
       <c r="I35" t="str">
-        <v>ขายแล้ว 2พัน ชิ้น</v>
+        <v>ขายแล้ว 130 ชิ้น</v>
       </c>
       <c r="J35" t="str">
-        <v>จังหวัดตราด</v>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="K35" t="str">
         <v/>
       </c>
       <c r="L35" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="M35" t="str">
-        <v/>
+        <v>78</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>https://shopee.co.th/Bluewow-%E0%B8%82%E0%B8%B2%E0%B8%A2%E0%B8%94%E0%B8%B5-%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1-PUBG-COD-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%80%E0%B8%AB%E0%B8%87%E0%B8%B7%E0%B9%88%E0%B8%AD-2023-(2-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99)-i.1009235633.20983952659?sp_atk=b95c7a79-33dd-42ad-9428-cf8fb2852ba4&amp;xptdk=b95c7a79-33dd-42ad-9428-cf8fb2852ba4</v>
+        <v>https://shopee.co.th/%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%81%E0%B8%94-%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%AA%E0%B9%8C%E0%B8%9A%E0%B8%AD%E0%B8%A2-%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B8%A7%E0%B8%B4%E0%B8%94%E0%B8%B5%E0%B9%82%E0%B8%AD%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2-Game-player-Retro-Mini-Handheld-Game-Console-i.1061047839.22656107288?sp_atk=540750f7-0db7-4567-b3a6-e4eacdf14c5d&amp;xptdk=540750f7-0db7-4567-b3a6-e4eacdf14c5d</v>
       </c>
       <c r="B36" t="str">
-        <v>https://down-th.img.susercontent.com/file/cn-11134207-7r98o-llellfybzangd5_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98y-lmk1y0k7385j72_tn</v>
       </c>
       <c r="C36" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="D36" t="str">
-        <v>-92%</v>
+        <v>-51%</v>
       </c>
       <c r="E36" t="str">
         <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="F36" t="str">
-        <v>Bluewow ขายดี ถุงมือเล่นเกม PUBG COD กันเหงื่อ 2023 (2 ชิ้น)</v>
+        <v>เกมกด เกมส์บอย เครื่องเล่นวิดีโอเกมเกมพกพา Game player Retro Mini Handheld Game Console</v>
       </c>
       <c r="G36" t="str">
         <v>-</v>
       </c>
       <c r="H36" t="str">
-        <v>14</v>
+        <v>138</v>
       </c>
       <c r="I36" t="str">
-        <v>ขายแล้ว 451 ชิ้น</v>
+        <v>ขายแล้ว 3.7พัน ชิ้น</v>
       </c>
       <c r="J36" t="str">
-        <v>ต่างประเทศ</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K36" t="str">
-        <v>฿</v>
+        <v/>
       </c>
       <c r="L36" t="str">
-        <v>70</v>
+        <v>฿</v>
       </c>
       <c r="M36" t="str">
-        <v>โค้ดลด 99%</v>
+        <v>189</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>https://shopee.co.th/SHEZI-%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%81%E0%B8%97%E0%B9%89-100-%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1-%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%81%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1-%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B8%96%E0%B8%B7%E0%B8%AD-1-%E0%B8%84%E0%B8%B9%E0%B9%88-%E0%B9%80%E0%B8%AA%E0%B9%89%E0%B8%99%E0%B9%83%E0%B8%A2%E0%B9%80%E0%B8%87%E0%B8%B4%E0%B8%99%E0%B8%84%E0%B8%B8%E0%B8%93%E0%B8%A0%E0%B8%B2%E0%B8%9E%E0%B8%94%E0%B8%B5-i.56675644.14914404074?sp_atk=84a1dae0-7b73-44f6-a879-57dedde085fc&amp;xptdk=84a1dae0-7b73-44f6-a879-57dedde085fc</v>
+        <v>https://shopee.co.th/%E0%B8%9B%E0%B8%B8%E0%B9%88%E0%B8%A1%E0%B8%AA%E0%B8%A7%E0%B8%B4%E0%B8%95%E0%B8%8A%E0%B9%8C-Mechanical-Keyboard-Outemu-Switch-Red-Switch-Blue-Switch-Black-Switch-Grey-Switch-i.128859410.21788628832?sp_atk=9d629839-60b1-456b-9631-b46e3945421e&amp;xptdk=9d629839-60b1-456b-9631-b46e3945421e</v>
       </c>
       <c r="B37" t="str">
-        <v>https://down-th.img.susercontent.com/file/babe8c398803388b0da559949ab74c43_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7qul6-lgn4g6ri71f8b9_tn</v>
       </c>
       <c r="C37" t="str">
         <v>ร้านแนะนำ</v>
       </c>
       <c r="D37" t="str">
-        <v>-97%</v>
+        <v>-73%</v>
       </c>
       <c r="E37" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+        <v/>
       </c>
       <c r="F37" t="str">
-        <v>SHEZI ของแท้ 100% ถุงนิ้วเล่นเกม ปลอกนิ้วเล่นเกม มือถือ  1 คู่  เส้นใยเงินคุณภาพดี</v>
+        <v>ปุ่มสวิตช์ Mechanical Keyboard Outemu Switch Red Switch,Blue Switch Black Switch Grey Switch</v>
       </c>
       <c r="G37" t="str">
-        <v>-</v>
+        <v>฿15</v>
       </c>
       <c r="H37" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I37" t="str">
-        <v>ขายแล้ว 13พัน ชิ้น</v>
+        <v>ขายแล้ว 20.2พัน ชิ้น</v>
       </c>
       <c r="J37" t="str">
-        <v>จังหวัดนนทบุรี</v>
+        <v>จังหวัดสมุทรสาคร</v>
       </c>
       <c r="K37" t="str">
-        <v>฿</v>
+        <v/>
       </c>
       <c r="L37" t="str">
-        <v>30</v>
+        <v/>
       </c>
       <c r="M37" t="str">
         <v/>
@@ -1893,160 +1893,160 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>https://shopee.co.th/%E0%B8%88%E0%B8%AD%E0%B8%A2%E0%B9%80%E0%B8%81%E0%B8%A1-%E0%B8%9A%E0%B8%A5%E0%B8%B9%E0%B8%97%E0%B8%B9%E0%B8%98%E0%B9%84%E0%B8%A3%E0%B9%89%E0%B8%AA%E0%B8%B2%E0%B8%A2-%E0%B9%81%E0%B8%9B%E0%B9%89%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%9A%E0%B8%A5%E0%B8%B9%E0%B8%97%E0%B8%B9%E0%B8%98-Game-Controller-for-Android-ios-%E0%B8%88%E0%B8%AD%E0%B8%A2%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B9%8A%E0%B8%81%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2-JOY-Bluetooth-%E0%B8%A1%E0%B8%B5%E0%B8%AB%E0%B8%A5%E0%B8%B2%E0%B8%A2%E0%B8%A3%E0%B8%B8%E0%B9%88%E0%B8%99%E0%B8%A1%E0%B8%B5%E0%B9%80%E0%B8%A5%E0%B8%B7%E0%B8%AD%E0%B8%81-i.1062356500.12099875919?sp_atk=91f10730-2c5d-4e2e-9fac-6f96c3d7b66a&amp;xptdk=91f10730-2c5d-4e2e-9fac-6f96c3d7b66a</v>
+        <v>https://shopee.co.th/Zkronsky-(2-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99)-%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1-%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99-Pubg-Rov-Call-of-duty-touch-%E0%B8%A2%E0%B8%B7%E0%B8%94%E0%B8%AB%E0%B8%94%E0%B9%84%E0%B8%94%E0%B9%89-i.291548354.8801889801?sp_atk=6e690deb-899e-4bee-9f10-145a1a43dd72&amp;xptdk=6e690deb-899e-4bee-9f10-145a1a43dd72</v>
       </c>
       <c r="B38" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98q-ln81pasinpl559_tn</v>
+        <v>https://down-th.img.susercontent.com/file/cn-11134207-7qukw-lj1fbfey5ksa43_tn</v>
       </c>
       <c r="C38" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="D38" t="str">
-        <v>-45%</v>
+        <v>-73%</v>
       </c>
       <c r="E38" t="str">
-        <v/>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="F38" t="str">
-        <v>จอยเกม บลูทูธไร้สาย แป้นเกมบลูทูธ Game Controller for Android ios จอยสติ๊กแบบพกพา JOY Bluetooth มีหลายรุ่นมีเลือก</v>
+        <v>Zkronsky (2 ชิ้น) ถุงนิ้วเล่นเกม เล่น Pubg Rov Call of duty touch ยืดหดได้</v>
       </c>
       <c r="G38" t="str">
-        <v>฿359</v>
+        <v>-</v>
       </c>
       <c r="H38" t="str">
-        <v>199</v>
+        <v>11</v>
       </c>
       <c r="I38" t="str">
-        <v>ขายแล้ว 229 ชิ้น</v>
+        <v>ขายแล้ว 21.6พัน ชิ้น</v>
       </c>
       <c r="J38" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="K38" t="str">
         <v/>
       </c>
       <c r="L38" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="M38" t="str">
-        <v/>
+        <v>49</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>https://shopee.co.th/E9-%E0%B9%83%E0%B8%AA%E0%B9%88%E0%B8%AA%E0%B8%A5%E0%B8%B1%E0%B8%9A%E0%B8%82%E0%B9%89%E0%B8%B2%E0%B8%87%E0%B9%84%E0%B8%94%E0%B9%89-%E0%B8%88%E0%B8%AD%E0%B8%A2%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1-%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B8%96%E0%B8%B7%E0%B8%AD%E0%B9%81%E0%B8%99%E0%B8%A7-FPS-Free-Fire-PUBG-Apex-Call-of-duty-i.56675644.1402819385?sp_atk=6cade624-b285-46c1-b943-8782bb500c47&amp;xptdk=6cade624-b285-46c1-b943-8782bb500c47</v>
+        <v>https://shopee.co.th/Bluewow-Free-Fire-Gamers-%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%80%E0%B8%AB%E0%B8%87%E0%B8%B7%E0%B9%88%E0%B8%AD-%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%81%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B8%96%E0%B8%B7%E0%B8%AD-%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2%E0%B8%88%E0%B8%AD%E0%B8%AA%E0%B8%B1%E0%B8%A1%E0%B8%9C%E0%B8%B1%E0%B8%AA-%E0%B8%84%E0%B8%A7%E0%B8%9A%E0%B8%84%E0%B8%B8%E0%B8%A1%E0%B9%80%E0%B8%81%E0%B8%A1-%E0%B9%82%E0%B8%97%E0%B8%A3%E0%B8%A8%E0%B8%B1%E0%B8%9E%E0%B8%97%E0%B9%8C-%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1-PUBG-i.853055097.23082764654?sp_atk=1414f450-0a90-4a6d-b735-74d3795e8acc&amp;xptdk=1414f450-0a90-4a6d-b735-74d3795e8acc</v>
       </c>
       <c r="B39" t="str">
-        <v>https://down-th.img.susercontent.com/file/e1acd81fa2eb7ae36faf6ccc9f6beb47_tn</v>
+        <v>https://down-th.img.susercontent.com/file/cn-11134207-7r98o-lmzecjb6tias13_tn</v>
       </c>
       <c r="C39" t="str">
         <v>ร้านแนะนำ</v>
       </c>
       <c r="D39" t="str">
-        <v>-96%</v>
+        <v>-92%</v>
       </c>
       <c r="E39" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
       </c>
       <c r="F39" t="str">
-        <v>E9 ใส่สลับข้างได้ จอยเล่นเกม มือถือแนว FPS Free Fire PUBG Apex Call of duty</v>
+        <v>Bluewow Free Fire Gamers ถุงมือกันเหงื่อ ปลอกนิ้วมือถือ หน้าจอสัมผัส ควบคุมเกม โทรศัพท์ เล่นเกม PUBG</v>
       </c>
       <c r="G39" t="str">
-        <v>฿25</v>
+        <v>-</v>
       </c>
       <c r="H39" t="str">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="I39" t="str">
-        <v>ขายแล้ว 11.7พัน ชิ้น</v>
+        <v>ขายแล้ว 318 ชิ้น</v>
       </c>
       <c r="J39" t="str">
-        <v>จังหวัดนนทบุรี</v>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="K39" t="str">
-        <v/>
+        <v>โค้ดลด ฿1</v>
       </c>
       <c r="L39" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="M39" t="str">
-        <v/>
+        <v>66</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>https://shopee.co.th/Bluewow-Free-Fire-Gamers-%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%80%E0%B8%AB%E0%B8%87%E0%B8%B7%E0%B9%88%E0%B8%AD-%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%81%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B8%96%E0%B8%B7%E0%B8%AD-%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2%E0%B8%88%E0%B8%AD%E0%B8%AA%E0%B8%B1%E0%B8%A1%E0%B8%9C%E0%B8%B1%E0%B8%AA-%E0%B8%84%E0%B8%A7%E0%B8%9A%E0%B8%84%E0%B8%B8%E0%B8%A1%E0%B9%80%E0%B8%81%E0%B8%A1-%E0%B9%82%E0%B8%97%E0%B8%A3%E0%B8%A8%E0%B8%B1%E0%B8%9E%E0%B8%97%E0%B9%8C-%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1-PUBG-i.853055097.23082764654?sp_atk=f0ad64ab-048c-4b46-bbdb-9a94aec6833f&amp;xptdk=f0ad64ab-048c-4b46-bbdb-9a94aec6833f</v>
+        <v>https://shopee.co.th/%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%AA%E0%B9%8C%E0%B8%9A%E0%B8%AD%E0%B8%A2-%E0%B8%A1%E0%B8%B4%E0%B8%99%E0%B8%B4%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%84%E0%B8%AD%E0%B8%99%E0%B9%82%E0%B8%8B%E0%B8%A5-sup-%E0%B8%A1%E0%B8%B5%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%84%E0%B8%AD%E0%B8%99%E0%B9%82%E0%B8%8B%E0%B8%A5%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2%E0%B8%88%E0%B8%AD%E0%B8%AA%E0%B8%B5-%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2-500-%E0%B9%83%E0%B8%99-1-game-boy-%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99-2-%E0%B8%84%E0%B8%99-%E0%B8%88%E0%B8%AD%E0%B9%83%E0%B8%AB%E0%B8%8D%E0%B9%883%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7-%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%81%E0%B8%94-i.560803588.17271493310?sp_atk=7e6c0f71-d488-42fb-b0ad-45b9c93f1419&amp;xptdk=7e6c0f71-d488-42fb-b0ad-45b9c93f1419</v>
       </c>
       <c r="B40" t="str">
-        <v>https://down-th.img.susercontent.com/file/cn-11134207-7r98o-lmzecjb6tias13_tn</v>
+        <v>https://down-th.img.susercontent.com/file/f4add985509e476158ff5628195e492f_tn</v>
       </c>
       <c r="C40" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="D40" t="str">
-        <v>-92%</v>
+        <v>-71%</v>
       </c>
       <c r="E40" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="F40" t="str">
-        <v>Bluewow Free Fire Gamers ถุงมือกันเหงื่อ ปลอกนิ้วมือถือ หน้าจอสัมผัส ควบคุมเกม โทรศัพท์ เล่นเกม PUBG</v>
+        <v>เกมส์บอย มินิเกมคอนโซล sup มีเกมคอนโซลหน้าจอสี พกพา 500 ใน 1 game boy เกมผู้เล่น 2 คน จอใหญ่3นิ้ว เกมกด</v>
       </c>
       <c r="G40" t="str">
         <v>-</v>
       </c>
       <c r="H40" t="str">
-        <v>14</v>
+        <v>205</v>
       </c>
       <c r="I40" t="str">
-        <v>ขายแล้ว 314 ชิ้น</v>
+        <v>ขายแล้ว 5.1พัน ชิ้น</v>
       </c>
       <c r="J40" t="str">
-        <v>ต่างประเทศ</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K40" t="str">
-        <v>฿</v>
+        <v/>
       </c>
       <c r="L40" t="str">
-        <v>66</v>
+        <v>฿</v>
       </c>
       <c r="M40" t="str">
-        <v>โค้ดลด ฿1</v>
+        <v>229</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>https://shopee.co.th/mini98K-M7-%E0%B8%88%E0%B8%AD%E0%B8%A2%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1-%E0%B8%9B%E0%B8%B8%E0%B9%88%E0%B8%A1%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1-%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B8%96%E0%B8%B7%E0%B8%AD%E0%B9%81%E0%B8%99%E0%B8%A7-FPS-Free-Fire-PUBG-Apex-Call-of-duty-i.56675644.1877068793?sp_atk=c06b896a-6fba-4c5b-b6b3-f0e990a0c16e&amp;xptdk=c06b896a-6fba-4c5b-b6b3-f0e990a0c16e</v>
+        <v>https://shopee.co.th/PSP-X7-16GB-%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2-Retro-Classic-%E0%B8%84%E0%B8%AD%E0%B8%99%E0%B9%82%E0%B8%8B%E0%B8%A5%E0%B8%A7%E0%B8%B4%E0%B8%94%E0%B8%B5%E0%B9%82%E0%B8%AD%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99-1200-%E0%B9%80%E0%B8%81%E0%B8%A1-PK-i.1124991028.25852224281?sp_atk=1de58863-49cf-408e-a6c7-7112b8d3eb87&amp;xptdk=1de58863-49cf-408e-a6c7-7112b8d3eb87</v>
       </c>
       <c r="B41" t="str">
-        <v>https://down-th.img.susercontent.com/file/e773b267aacb4a4f835a6147852b231b_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r991-lonuxdyp3fhued_tn</v>
       </c>
       <c r="C41" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="D41" t="str">
-        <v>-99%</v>
+        <v>-50%</v>
       </c>
       <c r="E41" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+        <v/>
       </c>
       <c r="F41" t="str">
-        <v>mini98K/M7 จอยเล่นเกม ปุ่มเล่นเกม มือถือแนว FPS Free Fire PUBG Apex Call of duty</v>
+        <v>PSP X7 16GB เกมพกพาแบบพกพา Retro Classic คอนโซลวิดีโอเกมผู้เล่น 1200 เกม PK</v>
       </c>
       <c r="G41" t="str">
-        <v>฿79</v>
+        <v>฿1,700</v>
       </c>
       <c r="H41" t="str">
-        <v>1</v>
+        <v>850</v>
       </c>
       <c r="I41" t="str">
-        <v>ขายแล้ว 6.5พัน ชิ้น</v>
+        <v>ขายแล้ว 25.1พัน ชิ้น</v>
       </c>
       <c r="J41" t="str">
-        <v>จังหวัดนนทบุรี</v>
+        <v>จังหวัดสมุทรสาคร</v>
       </c>
       <c r="K41" t="str">
-        <v/>
+        <v>โค้ดลด 99%</v>
       </c>
       <c r="L41" t="str">
         <v/>
@@ -2057,113 +2057,113 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>https://shopee.co.th/Bluewow-YKX-28-%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%81%E0%B8%AA%E0%B8%A7%E0%B8%A1%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B8%A1%E0%B8%B7%E0%B8%AD-%E0%B8%A3%E0%B8%B0%E0%B8%9A%E0%B8%B2%E0%B8%A2%E0%B8%AD%E0%B8%B2%E0%B8%81%E0%B8%B2%E0%B8%A8-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%80%E0%B8%AB%E0%B8%87%E0%B8%B7%E0%B9%88%E0%B8%AD-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1-%E0%B8%AD%E0%B8%B5%E0%B8%AA%E0%B8%9B%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B8%95-i.345343536.14274856355?sp_atk=c49a08fb-8098-4459-9762-e5163d2ef242&amp;xptdk=c49a08fb-8098-4459-9762-e5163d2ef242</v>
+        <v>https://shopee.co.th/%F0%9F%92%A5-%E0%B8%88%E0%B8%AD%E0%B8%A2%E0%B8%84%E0%B8%A3%E0%B8%AD%E0%B8%9A%E0%B8%88%E0%B8%B1%E0%B8%81%E0%B8%A3%E0%B8%A7%E0%B8%B2%E0%B8%A5-V.4-%E0%B8%88%E0%B8%AD%E0%B8%A2-BSP-D3-%E0%B8%A3%E0%B8%AD%E0%B8%87%E0%B8%A3%E0%B8%B1%E0%B8%9A-iOS-Android-%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%81%E0%B8%B1%E0%B8%991%E0%B8%9B%E0%B8%B5-%F0%9F%92%A5%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B9%84%E0%B8%A71%E0%B8%A7%E0%B8%B1%E0%B8%99-i.258612544.21772989591?sp_atk=1b2e77da-e66f-47b0-91cf-8ea9b59fe928&amp;xptdk=1b2e77da-e66f-47b0-91cf-8ea9b59fe928</v>
       </c>
       <c r="B42" t="str">
-        <v>https://down-th.img.susercontent.com/file/554747180a28520e900f80b0f6de5d25_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98s-llyeco6vjwnba7_tn</v>
       </c>
       <c r="C42" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D42" t="str">
-        <v>-25%</v>
+        <v/>
       </c>
       <c r="E42" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
+        <v/>
       </c>
       <c r="F42" t="str">
-        <v>Bluewow YKX-28 ปลอกสวมนิ้วมือ ระบายอากาศ กันเหงื่อ สําหรับเล่นเกม อีสปอร์ต</v>
+        <v>💥 จอยครอบจักรวาล V.4  จอย BSP-D3 รองรับ iOS Android ประกัน1ปี 💥ส่งไว1วัน</v>
       </c>
       <c r="G42" t="str">
         <v>-</v>
       </c>
       <c r="H42" t="str">
-        <v>27</v>
+        <v>329</v>
       </c>
       <c r="I42" t="str">
-        <v>ขายแล้ว 1.3พัน ชิ้น</v>
+        <v>ขายแล้ว 4.9พัน ชิ้น</v>
       </c>
       <c r="J42" t="str">
-        <v>ต่างประเทศ</v>
+        <v>จังหวัดนนทบุรี</v>
       </c>
       <c r="K42" t="str">
-        <v>฿</v>
+        <v/>
       </c>
       <c r="L42" t="str">
-        <v>45</v>
+        <v>฿</v>
       </c>
       <c r="M42" t="str">
-        <v>โค้ดลด ฿1</v>
+        <v>369</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>https://shopee.co.th/%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%A7%E0%B8%B2%E0%B8%87%E0%B8%88%E0%B8%AD%E0%B8%A2%E0%B9%80%E0%B8%81%E0%B8%A1-%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%A7%E0%B8%B2%E0%B8%87%E0%B8%AB%E0%B8%B9%E0%B8%9F%E0%B8%B1%E0%B8%87-%E0%B8%81%E0%B8%B2%E0%B8%A7%E0%B8%AD%E0%B8%B0%E0%B8%84%E0%B8%A3%E0%B8%B4%E0%B8%A5%E0%B8%B4%E0%B8%84-%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%A7%E0%B8%B2%E0%B8%87%E0%B8%AB%E0%B8%B9%E0%B8%9F%E0%B8%B1%E0%B8%87-%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%9C%E0%B8%99%E0%B8%B1%E0%B8%87-i.887181504.22121113497?sp_atk=3f050a79-15ca-4871-8e2e-7e183cc0fff7&amp;xptdk=3f050a79-15ca-4871-8e2e-7e183cc0fff7</v>
+        <v>https://shopee.co.th/%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1-Game-Stick-4k-10K-%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%AA%E0%B9%8C-64GB-%E0%B8%84%E0%B8%AD%E0%B8%99%E0%B9%82%E0%B8%8B%E0%B8%A5%E0%B8%A7%E0%B8%B4%E0%B8%94%E0%B8%B5%E0%B9%82%E0%B8%AD%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%84%E0%B8%AD%E0%B8%99%E0%B9%82%E0%B8%8B%E0%B8%A5%E0%B9%80%E0%B8%81%E0%B8%A1-%E0%B8%81%E0%B8%B2%E0%B8%A3%E0%B8%95%E0%B9%88%E0%B8%AD%E0%B8%AA%E0%B8%B9%E0%B9%89%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B8%AA%E0%B8%AD%E0%B8%87%E0%B8%84%E0%B8%99-HDMI-playstation-i.1178590228.25812215469?sp_atk=daecb470-2ada-4815-8236-a8c8244daeec&amp;xptdk=daecb470-2ada-4815-8236-a8c8244daeec</v>
       </c>
       <c r="B43" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-23020-99utosyfd1mv8b_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134201-7r98t-ls13u1z1n1asa6_tn</v>
       </c>
       <c r="C43" t="str">
         <v/>
       </c>
       <c r="D43" t="str">
-        <v>-62%</v>
+        <v>-82%</v>
       </c>
       <c r="E43" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
+        <v/>
       </c>
       <c r="F43" t="str">
-        <v>ที่วางจอยเกม ที่วางหูฟัง กาวอะคริลิค ที่วางหูฟัง แบบติดผนัง</v>
+        <v>เครื่องเล่นเกม Game Stick 4k 10K เกมส์ 64GB คอนโซลวิดีโอเกมคอนโซลเกม การต่อสู้ผู้เล่นสองคน HDMI playstation</v>
       </c>
       <c r="G43" t="str">
         <v>-</v>
       </c>
       <c r="H43" t="str">
-        <v>35</v>
+        <v>161</v>
       </c>
       <c r="I43" t="str">
-        <v>ขายแล้ว 1.4พัน ชิ้น</v>
+        <v>ขายแล้ว 89 ชิ้น</v>
       </c>
       <c r="J43" t="str">
-        <v>ต่างประเทศ</v>
+        <v>จังหวัดสมุทรปราการ</v>
       </c>
       <c r="K43" t="str">
-        <v>฿</v>
+        <v>โค้ดลด 80%</v>
       </c>
       <c r="L43" t="str">
-        <v>36</v>
+        <v>฿</v>
       </c>
       <c r="M43" t="str">
-        <v/>
+        <v>519</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>https://shopee.co.th/HyperX-ChargePlay-Duo-%E2%80%93-Charging-Station-for-DualSense%E2%84%A2-Wireless-Controllers-for-PS5-(51P68AA)-i.69583196.19925609528?sp_atk=af7cc6b3-e70a-4b36-998e-daac71d3d443&amp;xptdk=af7cc6b3-e70a-4b36-998e-daac71d3d443</v>
+        <v>https://shopee.co.th/%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B8%AA%E0%B8%B1%E0%B8%A1%E0%B8%9C%E0%B8%B1%E0%B8%AA%E0%B8%AA%E0%B8%B3%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%84%E0%B8%B2%E0%B8%A3%E0%B9%8C%E0%B8%9A%E0%B8%AD%E0%B8%99%E0%B9%84%E0%B8%9F%E0%B9%80%E0%B8%9A%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B8%A3%E0%B8%B0%E0%B8%94%E0%B8%B1%E0%B8%9A%E0%B8%9E%E0%B8%A3%E0%B8%B5%E0%B9%80%E0%B8%A1%E0%B8%B5%E0%B8%A2%E0%B8%A1-Anti-Sweating-Hands-%E0%B9%80%E0%B8%9E%E0%B8%B4%E0%B9%88%E0%B8%A1%E0%B8%84%E0%B8%A7%E0%B8%B2%E0%B8%A1%E0%B9%84%E0%B8%A7%E0%B9%83%E0%B8%99%E0%B8%81%E0%B8%B2%E0%B8%A3%E0%B8%AA%E0%B8%B1%E0%B8%A1%E0%B8%9C%E0%B8%B1%E0%B8%AA-A02-i.516428412.8190632060?sp_atk=717b8649-547a-49c1-af46-6b7a518554c5&amp;xptdk=717b8649-547a-49c1-af46-6b7a518554c5</v>
       </c>
       <c r="B44" t="str">
-        <v>https://down-th.img.susercontent.com/file/5dc5d627fd6c9f46044c71870cd3d41a_tn</v>
+        <v>https://down-th.img.susercontent.com/file/4d835df408d5e74c07e99d97e9112512_tn</v>
       </c>
       <c r="C44" t="str">
         <v/>
       </c>
       <c r="D44" t="str">
-        <v>-47%</v>
+        <v/>
       </c>
       <c r="E44" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-300ddf00d967483819649fe53299280c</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="F44" t="str">
-        <v>HyperX ChargePlay Duo – Charging Station for DualSense™ Wireless Controllers for PS5 (51P68AA)</v>
+        <v>ถุงมือสัมผัสสำหรับเล่นเกมคาร์บอนไฟเบอร์ระดับพรีเมียม Anti-Sweating Hands เพิ่มความไวในการสัมผัส A02</v>
       </c>
       <c r="G44" t="str">
-        <v>฿1,290</v>
+        <v/>
       </c>
       <c r="H44" t="str">
-        <v>690</v>
+        <v>10</v>
       </c>
       <c r="I44" t="str">
-        <v>ขายแล้ว 1.3พัน ชิ้น</v>
+        <v>ขายแล้ว 61.1พัน ชิ้น</v>
       </c>
       <c r="J44" t="str">
         <v>จังหวัดกรุงเทพมหานคร</v>
@@ -2180,92 +2180,92 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>https://shopee.co.th/%E3%80%90%E0%B8%88%E0%B8%B1%E0%B8%94%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B8%A0%E0%B8%B2%E0%B8%A2%E0%B9%83%E0%B8%99-24-%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%A7%E0%B9%82%E0%B8%A1%E0%B8%87%E3%80%91HY-One-Piece-%E3%80%90%E0%B8%A5%E0%B8%B9%E0%B8%9F%E0%B8%B5%E0%B9%88%E3%80%91%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1-%E0%B8%AA%E0%B8%A7%E0%B8%A1%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B8%AB%E0%B8%B1%E0%B8%A7%E0%B9%81%E0%B8%A1%E0%B9%88%E0%B8%A1%E0%B8%B7%E0%B8%AD-(2-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99)-PUBG-COD-Call-of-duty-Mobile-legends-state-of-survival-i.1151821327.25255386473?sp_atk=6af0d0da-6410-46f6-a7a6-cd74f63806f2&amp;xptdk=6af0d0da-6410-46f6-a7a6-cd74f63806f2</v>
+        <v>https://shopee.co.th/%E2%9A%94-CH-5-%E0%B8%88%E0%B8%AD%E0%B8%A2-PUBG-1-%E0%B8%84%E0%B8%B9%E0%B9%88-BLUE-SHARK-%E0%B8%88%E0%B8%AD%E0%B8%A2%E0%B8%89%E0%B8%A5%E0%B8%B2%E0%B8%A1-i.271171871.4138977991?sp_atk=3b34c4c2-44e9-422d-b937-c6c6f9f94f84&amp;xptdk=3b34c4c2-44e9-422d-b937-c6c6f9f94f84</v>
       </c>
       <c r="B45" t="str">
-        <v>https://down-th.img.susercontent.com/file/cn-11134207-7r98o-lqyzu4clr7bxfc_tn</v>
+        <v>https://down-th.img.susercontent.com/file/5759aa83119f431d59235b048c783aed_tn</v>
       </c>
       <c r="C45" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="D45" t="str">
-        <v>-90%</v>
+        <v>-80%</v>
       </c>
       <c r="E45" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="F45" t="str">
-        <v>【จัดส่งภายใน 24 ชั่วโมง】HY One Piece 【ลูฟี่】ถุงมือเล่นเกม สวมนิ้วหัวแม่มือ (2 ชิ้น) PUBG COD Call of duty Mobile legends state of survival</v>
+        <v>⚔ CH-5 จอย PUBG 1 คู่ BLUE SHARK จอยฉลาม</v>
       </c>
       <c r="G45" t="str">
-        <v>-</v>
+        <v>฿199</v>
       </c>
       <c r="H45" t="str">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="I45" t="str">
-        <v>ขายแล้ว 87 ชิ้น</v>
+        <v>ขายแล้ว 1.3พัน ชิ้น</v>
       </c>
       <c r="J45" t="str">
-        <v>ต่างประเทศ</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K45" t="str">
-        <v>฿</v>
+        <v/>
       </c>
       <c r="L45" t="str">
-        <v>75</v>
+        <v/>
       </c>
       <c r="M45" t="str">
-        <v>โค้ดลด ฿5</v>
+        <v/>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>https://shopee.co.th/Bluewow-%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%81%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1-%E0%B8%99%E0%B8%B2%E0%B9%82%E0%B8%99%E0%B9%84%E0%B8%9F%E0%B9%80%E0%B8%9A%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%80%E0%B8%AB%E0%B8%87%E0%B8%B7%E0%B9%88%E0%B8%AD-%E0%B8%A3%E0%B8%B0%E0%B8%9A%E0%B8%B2%E0%B8%A2%E0%B8%AD%E0%B8%B2%E0%B8%81%E0%B8%B2%E0%B8%A8-%E0%B8%AA%E0%B8%B5%E0%B9%80%E0%B8%87%E0%B8%B4%E0%B8%99-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A-Pubg-i.853055097.23688611767?sp_atk=963f6e44-4501-43ef-888d-2fa2e79a1025&amp;xptdk=963f6e44-4501-43ef-888d-2fa2e79a1025</v>
+        <v>https://shopee.co.th/%E0%B8%97%E0%B8%B2%E0%B8%A1%E0%B8%B2%E0%B8%81%E0%B9%8A%E0%B8%AD%E0%B8%95-%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B8%A2%E0%B8%B8%E0%B8%84-90-Tamagotchi-%E0%B8%97%E0%B8%B2%E0%B8%A1%E0%B8%B2%E0%B8%81%E0%B9%8A%E0%B8%AD%E0%B8%95%E0%B9%80%E0%B8%A5%E0%B8%B5%E0%B9%89%E0%B8%A2%E0%B8%87%E0%B8%AA%E0%B8%B1%E0%B8%95%E0%B8%A7%E0%B9%8C%E0%B9%80%E0%B8%A5%E0%B8%B5%E0%B9%89%E0%B8%A2%E0%B8%87%E0%B8%AD%E0%B8%B4%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%81%E0%B9%82%E0%B8%97%E0%B8%A3%E0%B8%99%E0%B8%B4%E0%B8%81%E0%B8%AA%E0%B9%8C-%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%97%E0%B8%B2%E0%B8%A1%E0%B8%B2%E0%B8%81%E0%B9%87%E0%B8%AD%E0%B8%95-GA0008-i.818696.4549184151?sp_atk=e3d8d89d-f930-4364-8bc2-a9880f14f97e&amp;xptdk=e3d8d89d-f930-4364-8bc2-a9880f14f97e</v>
       </c>
       <c r="B46" t="str">
-        <v>https://down-th.img.susercontent.com/file/cn-11134207-7r98o-lpew5yv6i99891_tn</v>
+        <v>https://down-th.img.susercontent.com/file/6eaf866cefcc305df88b1e5f35a60ffa_tn</v>
       </c>
       <c r="C46" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="D46" t="str">
-        <v>-88%</v>
+        <v>-40%</v>
       </c>
       <c r="E46" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-300ddf00d967483819649fe53299280c</v>
       </c>
       <c r="F46" t="str">
-        <v>Bluewow ปลอกนิ้วมือเล่นเกม นาโนไฟเบอร์ กันเหงื่อ ระบายอากาศ สีเงิน สําหรับ Pubg</v>
+        <v>ทามาก๊อต ของเล่นยุค 90 Tamagotchi ทามาก๊อตเลี้ยงสัตว์เลี้ยงอิเล็กโทรนิกส์ เกมทามาก็อต GA0008</v>
       </c>
       <c r="G46" t="str">
-        <v>-</v>
+        <v>฿99</v>
       </c>
       <c r="H46" t="str">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="I46" t="str">
-        <v>ขายแล้ว 138 ชิ้น</v>
+        <v>ขายแล้ว 3.6พัน ชิ้น</v>
       </c>
       <c r="J46" t="str">
-        <v>ต่างประเทศ</v>
+        <v>จังหวัดระยอง</v>
       </c>
       <c r="K46" t="str">
-        <v>฿</v>
+        <v/>
       </c>
       <c r="L46" t="str">
-        <v>99</v>
+        <v/>
       </c>
       <c r="M46" t="str">
-        <v>โค้ดลด ฿1</v>
+        <v/>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>https://shopee.co.th/%E0%B8%A5%E0%B8%B8%E0%B9%89%E0%B8%99%E0%B8%A3%E0%B8%AB%E0%B8%B1%E0%B8%AA%E0%B9%84%E0%B8%81%E0%B9%88%E0%B8%95%E0%B8%B1%E0%B8%99-%E0%B9%80%E0%B8%9C%E0%B9%88%E0%B8%B2V4-T10-%E0%B8%94%E0%B8%B2%E0%B8%9A%E0%B8%84%E0%B8%B9%E0%B9%88%E0%B9%82%E0%B8%AD%E0%B9%80%E0%B8%94%E0%B9%89%E0%B8%87-%E0%B8%AB%E0%B8%A1%E0%B8%B1%E0%B8%94%E0%B8%84%E0%B8%A3%E0%B8%9A-%E0%B8%9C%E0%B8%A5%E0%B8%95%E0%B8%B7%E0%B9%88%E0%B8%99-%E0%B8%9C%E0%B8%A5%E0%B9%81%E0%B8%94%E0%B8%87%E0%B9%83%E0%B8%99%E0%B8%84%E0%B8%A5%E0%B8%B1%E0%B8%87-%E0%B8%9C%E0%B8%A5%E0%B8%96%E0%B8%B2%E0%B8%A7%E0%B8%A3-i.343131871.18785262382?sp_atk=e3801562-1f9c-4058-a685-35527024fcaf&amp;xptdk=e3801562-1f9c-4058-a685-35527024fcaf</v>
+        <v>https://shopee.co.th/R11-%E0%B8%9B%E0%B8%B8%E0%B9%88%E0%B8%A1%E0%B8%8A%E0%B9%88%E0%B8%A7%E0%B8%A2%E0%B8%A2%E0%B8%B4%E0%B8%87-%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1-%E0%B8%88%E0%B8%AD%E0%B8%A2%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%AA%E0%B9%8C%E0%B8%AA%E0%B8%B3%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B8%96%E0%B8%B7%E0%B8%AD-%E0%B8%9B%E0%B8%B8%E0%B9%88%E0%B8%A1%E0%B9%82%E0%B8%A5%E0%B8%AB%E0%B8%B0-%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2%E0%B8%87%E0%B9%88%E0%B8%B2%E0%B8%A2-%E0%B8%AA%E0%B8%B0%E0%B8%94%E0%B8%A7%E0%B8%81-%E0%B8%9E%E0%B8%B1%E0%B8%92%E0%B8%99%E0%B8%B2%E0%B8%9D%E0%B8%B5%E0%B8%A1%E0%B8%B7%E0%B8%AD-pubg-freefire-rov-fifa-%E0%B8%88%E0%B8%AD%E0%B8%A2%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%AA%E0%B9%8C-i.151451444.18248763739?sp_atk=2119869b-142b-4dd0-b806-3ec97284336d&amp;xptdk=2119869b-142b-4dd0-b806-3ec97284336d</v>
       </c>
       <c r="B47" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98s-lmvw7db4npxj77_tn</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-22090-buhlpd2qbthv34_tn</v>
       </c>
       <c r="C47" t="str">
         <v/>
@@ -2274,19 +2274,19 @@
         <v/>
       </c>
       <c r="E47" t="str">
-        <v/>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="F47" t="str">
-        <v>ลุ้นรหัสไก่ตัน เผ่าV4 T10 ดาบคู่โอเด้ง หมัดครบ ผลตื่น ผลแดงในคลัง ผลถาวร</v>
+        <v>R11 ปุ่มช่วยยิง ถุงนิ้วเล่นเกม จอยเกมส์สำหรับมือถือ ปุ่มโลหะ พกพาง่าย สะดวก พัฒนาฝีมือ pubg freefire rov fifa จอยเกมส์</v>
       </c>
       <c r="G47" t="str">
-        <v/>
+        <v>-</v>
       </c>
       <c r="H47" t="str">
-        <v>129</v>
+        <v>26</v>
       </c>
       <c r="I47" t="str">
-        <v>ขายแล้ว 87 ชิ้น</v>
+        <v>ขายแล้ว 1.5พัน ชิ้น</v>
       </c>
       <c r="J47" t="str">
         <v>จังหวัดกรุงเทพมหานคร</v>
@@ -2295,285 +2295,285 @@
         <v/>
       </c>
       <c r="L47" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="M47" t="str">
-        <v/>
+        <v>42</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>https://shopee.co.th/%E0%B8%A5%E0%B8%B2%E0%B8%A2%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88%E0%B9%80%E0%B8%9E%E0%B8%B5%E0%B8%A2%E0%B8%9A-%E0%B8%8B%E0%B8%B4%E0%B8%A5%E0%B8%B4%E0%B9%82%E0%B8%84%E0%B8%99%E0%B8%84%E0%B8%A3%E0%B8%AD%E0%B8%9B-analog-Joy-Pro-Controller-NSW-PS4-5-Xbox-(%E0%B8%82%E0%B8%B2%E0%B8%A2%E0%B9%80%E0%B8%9B%E0%B9%87%E0%B8%99%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99)-i.141856737.3860434676?sp_atk=369c1f57-7bcc-4624-baf7-36ff743ca1d3&amp;xptdk=369c1f57-7bcc-4624-baf7-36ff743ca1d3</v>
+        <v>https://shopee.co.th/Bluewow-YKX-28-%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%81%E0%B8%AA%E0%B8%A7%E0%B8%A1%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B8%A1%E0%B8%B7%E0%B8%AD-%E0%B8%A3%E0%B8%B0%E0%B8%9A%E0%B8%B2%E0%B8%A2%E0%B8%AD%E0%B8%B2%E0%B8%81%E0%B8%B2%E0%B8%A8-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%80%E0%B8%AB%E0%B8%87%E0%B8%B7%E0%B9%88%E0%B8%AD-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1-%E0%B8%AD%E0%B8%B5%E0%B8%AA%E0%B8%9B%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B8%95-i.345343536.14274856355?sp_atk=76604d8c-a0f1-4f17-9d30-b5bbe5b696d8&amp;xptdk=76604d8c-a0f1-4f17-9d30-b5bbe5b696d8</v>
       </c>
       <c r="B48" t="str">
-        <v>https://down-th.img.susercontent.com/file/a5b59b3e079b5c740d05afcada992c12_tn</v>
+        <v>https://down-th.img.susercontent.com/file/554747180a28520e900f80b0f6de5d25_tn</v>
       </c>
       <c r="C48" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="D48" t="str">
-        <v>-36%</v>
+        <v>-25%</v>
       </c>
       <c r="E48" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="F48" t="str">
-        <v>ลายใหม่เพียบ ซิลิโคนครอป analog Joy Pro Controller NSW/PS4,5/Xbox (ขายเป็นชิ้น)</v>
+        <v>Bluewow YKX-28 ปลอกสวมนิ้วมือ ระบายอากาศ กันเหงื่อ สําหรับเล่นเกม อีสปอร์ต</v>
       </c>
       <c r="G48" t="str">
         <v>-</v>
       </c>
       <c r="H48" t="str">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I48" t="str">
-        <v>ขายแล้ว 7.6พัน ชิ้น</v>
+        <v>ขายแล้ว 1.3พัน ชิ้น</v>
       </c>
       <c r="J48" t="str">
-        <v>จังหวัดนครปฐม</v>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="K48" t="str">
-        <v>฿</v>
+        <v>โค้ดลด ฿1</v>
       </c>
       <c r="L48" t="str">
-        <v>25</v>
+        <v>฿</v>
       </c>
       <c r="M48" t="str">
-        <v/>
+        <v>45</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>https://shopee.co.th/Bluewow-%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%81%E0%B8%AA%E0%B8%A7%E0%B8%A1%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B8%AB%E0%B8%B1%E0%B8%A7%E0%B9%81%E0%B8%A1%E0%B9%88%E0%B8%A1%E0%B8%B7%E0%B8%AD-%E0%B9%84%E0%B8%9F%E0%B9%80%E0%B8%9A%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B8%A3%E0%B8%B0%E0%B8%9A%E0%B8%B2%E0%B8%A2%E0%B8%AD%E0%B8%B2%E0%B8%81%E0%B8%B2%E0%B8%A8-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%80%E0%B8%AB%E0%B8%87%E0%B8%B7%E0%B9%88%E0%B8%AD-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%AA%E0%B9%8C-i.345343536.22452140469?sp_atk=89554e7e-b317-48c4-8706-2dfa7bcaa2be&amp;xptdk=89554e7e-b317-48c4-8706-2dfa7bcaa2be</v>
+        <v>https://shopee.co.th/SHEZI-%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%81%E0%B8%97%E0%B9%89-100-%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1-%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%81%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1-%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B8%96%E0%B8%B7%E0%B8%AD-1-%E0%B8%84%E0%B8%B9%E0%B9%88-%E0%B9%80%E0%B8%AA%E0%B9%89%E0%B8%99%E0%B9%83%E0%B8%A2%E0%B9%80%E0%B8%87%E0%B8%B4%E0%B8%99%E0%B8%84%E0%B8%B8%E0%B8%93%E0%B8%A0%E0%B8%B2%E0%B8%9E%E0%B8%94%E0%B8%B5-i.56675644.14914404074?sp_atk=6384d0cf-ea31-4609-b5ed-794f3440d192&amp;xptdk=6384d0cf-ea31-4609-b5ed-794f3440d192</v>
       </c>
       <c r="B49" t="str">
-        <v>https://down-th.img.susercontent.com/file/cn-11134207-7r98o-lkq5ww44xm8xb6_tn</v>
+        <v>https://down-th.img.susercontent.com/file/babe8c398803388b0da559949ab74c43_tn</v>
       </c>
       <c r="C49" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D49" t="str">
-        <v>-86%</v>
+        <v>-97%</v>
       </c>
       <c r="E49" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-dfe02b2e2296fa17d79fc513bfadb4da</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="F49" t="str">
-        <v>Bluewow ปลอกสวมนิ้วหัวแม่มือ ไฟเบอร์ ระบายอากาศ กันเหงื่อ สําหรับเล่นเกมส์</v>
+        <v>SHEZI ของแท้ 100% ถุงนิ้วเล่นเกม ปลอกนิ้วเล่นเกม มือถือ  1 คู่  เส้นใยเงินคุณภาพดี</v>
       </c>
       <c r="G49" t="str">
         <v>-</v>
       </c>
       <c r="H49" t="str">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="I49" t="str">
-        <v>ขายแล้ว 3.4พัน ชิ้น</v>
+        <v>ขายแล้ว 13พัน ชิ้น</v>
       </c>
       <c r="J49" t="str">
-        <v>ต่างประเทศ</v>
+        <v>จังหวัดนนทบุรี</v>
       </c>
       <c r="K49" t="str">
-        <v>฿</v>
+        <v/>
       </c>
       <c r="L49" t="str">
-        <v>77</v>
+        <v>฿</v>
       </c>
       <c r="M49" t="str">
-        <v>โค้ดลด ฿1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>https://shopee.co.th/%E0%B8%88%E0%B8%AD%E0%B8%A2%E0%B9%80%E0%B8%81%E0%B8%A1-%E0%B8%9A%E0%B8%A5%E0%B8%B9%E0%B8%97%E0%B8%B9%E0%B8%98%E0%B9%84%E0%B8%A3%E0%B9%89%E0%B8%AA%E0%B8%B2%E0%B8%A2-%E0%B9%81%E0%B8%9B%E0%B9%89%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%9A%E0%B8%A5%E0%B8%B9%E0%B8%97%E0%B8%B9%E0%B8%98-Game-Controller-for-Android-ios-%E0%B8%88%E0%B8%AD%E0%B8%A2%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B9%8A%E0%B8%81%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2-i.1018331375.22871637912?sp_atk=2f45686f-0b95-4241-b8c1-07a0b5a8f85e&amp;xptdk=2f45686f-0b95-4241-b8c1-07a0b5a8f85e</v>
+        <v>https://shopee.co.th/-%E0%B9%80%E0%B8%81%E0%B8%A1-PC-Windows-Minecraft-Java-Windows-KEY-%E0%B9%81%E0%B8%97%E0%B9%89-i.81646673.13210582497?sp_atk=027d58be-3ff1-410e-86ba-9e573f6f6051&amp;xptdk=027d58be-3ff1-410e-86ba-9e573f6f6051</v>
       </c>
       <c r="B50" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-7qvcv-liafxnpyw74d95_tn</v>
+        <v>https://down-th.img.susercontent.com/file/cc1306738daf638ce5e21b5c033a6b7b_tn</v>
       </c>
       <c r="C50" t="str">
         <v/>
       </c>
       <c r="D50" t="str">
-        <v>-61%</v>
+        <v>-24%</v>
       </c>
       <c r="E50" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
+        <v/>
       </c>
       <c r="F50" t="str">
-        <v>จอยเกม บลูทูธไร้สาย แป้นเกมบลูทูธ Game Controller for Android ios จอยสติ๊กแบบพกพา</v>
+        <v>[เกม PC][Windows] Minecraft Java + Windows KEY แท้</v>
       </c>
       <c r="G50" t="str">
         <v>-</v>
       </c>
       <c r="H50" t="str">
-        <v>162</v>
+        <v>399</v>
       </c>
       <c r="I50" t="str">
-        <v>ขายแล้ว 228 ชิ้น</v>
+        <v>ขายแล้ว 3.4พัน ชิ้น</v>
       </c>
       <c r="J50" t="str">
-        <v>ต่างประเทศ</v>
+        <v>จังหวัดนครปฐม</v>
       </c>
       <c r="K50" t="str">
-        <v>฿</v>
+        <v/>
       </c>
       <c r="L50" t="str">
-        <v>217</v>
+        <v>฿</v>
       </c>
       <c r="M50" t="str">
-        <v>โค้ดลด 95%</v>
+        <v>649</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>https://shopee.co.th/%E0%B8%88%E0%B8%AD%E0%B8%A2%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1-%E0%B8%9B%E0%B8%B8%E0%B9%88%E0%B8%A1%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B8%96%E0%B8%B7%E0%B8%AD%E0%B9%81%E0%B8%99%E0%B8%A7-FPS-Free-Fire-PUBG-Apex-Call-of-duty-i.56675644.1439844438?sp_atk=1b894b33-216c-4eeb-aa03-bd509106478c&amp;xptdk=1b894b33-216c-4eeb-aa03-bd509106478c</v>
+        <v>https://shopee.co.th/Bluewow-%E0%B8%82%E0%B8%B2%E0%B8%A2%E0%B8%94%E0%B8%B5-%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1-PUBG-COD-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%80%E0%B8%AB%E0%B8%87%E0%B8%B7%E0%B9%88%E0%B8%AD-2023-(2-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99)-i.1009235633.20983952659?sp_atk=77dcdc92-c925-4178-a66c-224b70b39817&amp;xptdk=77dcdc92-c925-4178-a66c-224b70b39817</v>
       </c>
       <c r="B51" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98z-lomcjstc0jhg54_tn</v>
+        <v>https://down-th.img.susercontent.com/file/cn-11134207-7r98o-llellfybzangd5_tn</v>
       </c>
       <c r="C51" t="str">
         <v>ร้านแนะนำ</v>
       </c>
       <c r="D51" t="str">
-        <v>-98%</v>
+        <v>-92%</v>
       </c>
       <c r="E51" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="F51" t="str">
-        <v>จอยเล่นเกม ปุ่มเล่นเกมมือถือแนว FPS Free Fire PUBG Apex Call of duty</v>
+        <v>Bluewow ขายดี ถุงมือเล่นเกม PUBG COD กันเหงื่อ 2023 (2 ชิ้น)</v>
       </c>
       <c r="G51" t="str">
         <v>-</v>
       </c>
       <c r="H51" t="str">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="I51" t="str">
-        <v>ขายแล้ว 27.8พัน ชิ้น</v>
+        <v>ขายแล้ว 453 ชิ้น</v>
       </c>
       <c r="J51" t="str">
-        <v>จังหวัดนนทบุรี</v>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="K51" t="str">
-        <v>฿</v>
+        <v>โค้ดลด 99%</v>
       </c>
       <c r="L51" t="str">
-        <v>169</v>
+        <v>฿</v>
       </c>
       <c r="M51" t="str">
-        <v/>
+        <v>70</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>https://shopee.co.th/Q8-Plus-%E0%B8%9B%E0%B8%B8%E0%B9%88%E0%B8%A1%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1-%E0%B8%88%E0%B8%AD%E0%B8%A2%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B8%96%E0%B8%B7%E0%B8%AD-%E0%B9%81%E0%B8%99%E0%B8%A7-MOBA-ROV-%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B9%80%E0%B8%81%E0%B8%B2%E0%B8%B0%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2%E0%B8%88%E0%B8%AD%E0%B9%81%E0%B8%81%E0%B8%B0%E0%B8%AD%E0%B8%AD%E0%B8%81%E0%B8%87%E0%B9%88%E0%B8%B2%E0%B8%A2-i.56675644.4434024358?sp_atk=f147df52-0534-4cec-a0e2-5518a0e13288&amp;xptdk=f147df52-0534-4cec-a0e2-5518a0e13288</v>
+        <v>https://shopee.co.th/%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%81%E0%B8%94-%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%AA%E0%B9%8C%E0%B8%9A%E0%B8%AD%E0%B8%A2-%E0%B8%88%E0%B8%AD%E0%B8%AA%E0%B8%B5-400-%E0%B9%80%E0%B8%81%E0%B8%A1-in-1-Game-player-Retro-Mini-Handheld-Game-Console-i.802214265.19076229255?sp_atk=21a84fab-c371-4b0a-811c-94cf0d074d8a&amp;xptdk=21a84fab-c371-4b0a-811c-94cf0d074d8a</v>
       </c>
       <c r="B52" t="str">
-        <v>https://down-th.img.susercontent.com/file/2af3e059bea0dcb79715a2626d22f146_tn</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-23030-nr24owttrpova4_tn</v>
       </c>
       <c r="C52" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="D52" t="str">
-        <v>-97%</v>
+        <v>-53%</v>
       </c>
       <c r="E52" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+        <v/>
       </c>
       <c r="F52" t="str">
-        <v>Q8 Plus ปุ่มเล่นเกม จอยเล่นเกมมือถือ แนว MOBA  ROV แบบเกาะหน้าจอแกะออกง่าย</v>
+        <v>เกมกด เกมส์บอย จอสี 400 เกม in 1 Game player Retro Mini Handheld Game Console</v>
       </c>
       <c r="G52" t="str">
         <v>-</v>
       </c>
       <c r="H52" t="str">
-        <v>1</v>
+        <v>139</v>
       </c>
       <c r="I52" t="str">
-        <v>ขายแล้ว 4.2พัน ชิ้น</v>
+        <v>ขายแล้ว 1.2พัน ชิ้น</v>
       </c>
       <c r="J52" t="str">
-        <v>จังหวัดนนทบุรี</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K52" t="str">
-        <v>฿</v>
+        <v/>
       </c>
       <c r="L52" t="str">
-        <v>48</v>
+        <v>฿</v>
       </c>
       <c r="M52" t="str">
-        <v/>
+        <v>185</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>https://shopee.co.th/%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%81%E0%B8%94-%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%AA%E0%B9%8C%E0%B8%9A%E0%B8%AD%E0%B8%A2-%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B8%A7%E0%B8%B4%E0%B8%94%E0%B8%B5%E0%B9%82%E0%B8%AD%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2-Game-player-Retro-Mini-Handheld-Game-Console-i.1061047839.22656107288?sp_atk=3b8f3238-a250-404e-96b7-a2cba614dc8c&amp;xptdk=3b8f3238-a250-404e-96b7-a2cba614dc8c</v>
+        <v>https://shopee.co.th/-Genshin-Bluewow-%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B8%84%E0%B8%A7%E0%B8%9A%E0%B8%84%E0%B8%B8%E0%B8%A1%E0%B9%80%E0%B8%81%E0%B8%A1-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%80%E0%B8%AB%E0%B8%87%E0%B8%B7%E0%B9%88%E0%B8%AD-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A-Genshin-PUBG-i.1166791125.25159557912?sp_atk=00d8de9e-0eff-4610-ac0b-16594494f292&amp;xptdk=00d8de9e-0eff-4610-ac0b-16594494f292</v>
       </c>
       <c r="B53" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98y-lmk1y0k7385j72_tn</v>
+        <v>https://down-th.img.susercontent.com/file/cn-11134207-7r98o-lsi2f6jjt61p7b_tn</v>
       </c>
       <c r="C53" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D53" t="str">
-        <v>-51%</v>
+        <v>-93%</v>
       </c>
       <c r="E53" t="str">
         <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="F53" t="str">
-        <v>เกมกด เกมส์บอย เครื่องเล่นวิดีโอเกมเกมพกพา Game player Retro Mini Handheld Game Console</v>
+        <v>[Genshin] Bluewow ถุงมือควบคุมเกม กันเหงื่อ สําหรับ Genshin PUBG</v>
       </c>
       <c r="G53" t="str">
         <v>-</v>
       </c>
       <c r="H53" t="str">
-        <v>138</v>
+        <v>9</v>
       </c>
       <c r="I53" t="str">
-        <v>ขายแล้ว 3.6พัน ชิ้น</v>
+        <v>ขายแล้ว 110 ชิ้น</v>
       </c>
       <c r="J53" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="K53" t="str">
-        <v>฿</v>
+        <v/>
       </c>
       <c r="L53" t="str">
-        <v>189</v>
+        <v>฿</v>
       </c>
       <c r="M53" t="str">
-        <v/>
+        <v>65</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>https://shopee.co.th/%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1-1%E0%B9%81%E0%B8%9E%E0%B9%87%E0%B8%84-2-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%AA%E0%B9%8C%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%81%E0%B8%97%E0%B9%89-%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%AA%E0%B9%8C%E0%B8%9F%E0%B8%B5%E0%B8%9F%E0%B8%B2%E0%B8%A2-%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%AA%E0%B9%8C-%E0%B8%97%E0%B8%B1%E0%B8%8A%E0%B8%A5%E0%B8%B7%E0%B9%88%E0%B8%99-%E0%B9%81%E0%B8%A1%E0%B9%88%E0%B8%99%E0%B8%A2%E0%B8%B3-i.481551189.22246094907?sp_atk=ab2370e0-3fc7-40d2-8060-691447790b66&amp;xptdk=ab2370e0-3fc7-40d2-8060-691447790b66</v>
+        <v>https://shopee.co.th/%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%81%E0%B8%94-%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%AA%E0%B9%8C%E0%B8%9A%E0%B8%AD%E0%B8%A2-%E0%B8%88%E0%B8%AD%E0%B8%AA%E0%B8%B5-400-%E0%B9%80%E0%B8%81%E0%B8%A1-in-1-Game-player-Retro-Mini-Handheld-Game-Console-i.933534332.18570818728?sp_atk=db944933-c193-41a1-b732-073c7b9ef2db&amp;xptdk=db944933-c193-41a1-b732-073c7b9ef2db</v>
       </c>
       <c r="B54" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7qul1-li9wrd00wxap5c_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7qula-lhig6ezn2fwz76_tn</v>
       </c>
       <c r="C54" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="D54" t="str">
-        <v>-92%</v>
+        <v>-53%</v>
       </c>
       <c r="E54" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
+        <v/>
       </c>
       <c r="F54" t="str">
-        <v>ถุงนิ้วเล่นเกม 1แพ็ค 2 ชิ้น ถุงนิ้วเล่นเกมส์ของแท้ ถุงนิ้วเล่นเกมส์ฟีฟาย ถุงนิ้วเล่นเกมส์ ทัชลื่น แม่นยำ</v>
+        <v>เกมกด เกมส์บอย จอสี 400 เกม in 1 Game player Retro Mini Handheld Game Console</v>
       </c>
       <c r="G54" t="str">
-        <v>฿12</v>
+        <v>-</v>
       </c>
       <c r="H54" t="str">
-        <v>1</v>
+        <v>139</v>
       </c>
       <c r="I54" t="str">
-        <v>ขายแล้ว 14.3พัน ชิ้น</v>
+        <v>ขายแล้ว 702 ชิ้น</v>
       </c>
       <c r="J54" t="str">
         <v>จังหวัดกรุงเทพมหานคร</v>
@@ -2582,83 +2582,83 @@
         <v/>
       </c>
       <c r="L54" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="M54" t="str">
-        <v/>
+        <v>185</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>https://shopee.co.th/-E-Voucher-%E0%B8%81%E0%B8%B2%E0%B8%A3%E0%B8%B5%E0%B8%99%E0%B8%B2%E0%B9%80%E0%B8%8A%E0%B8%A5%E0%B8%A5%E0%B9%8C-135-Shells-i.45810617.21522636794?sp_atk=b060bd1b-586c-4860-b79b-b191d64f86fb&amp;xptdk=b060bd1b-586c-4860-b79b-b191d64f86fb</v>
+        <v>https://shopee.co.th/%E0%B8%A0%E0%B8%B2%E0%B8%84%E0%B9%80%E0%B8%AA%E0%B8%A3%E0%B8%B4%E0%B8%A1-The-Sims-4-%E0%B9%80%E0%B8%A5%E0%B8%B7%E0%B8%AD%E0%B8%81%E0%B9%80%E0%B8%89%E0%B8%9E%E0%B8%B2%E0%B8%B0%E0%B8%A0%E0%B8%B2%E0%B8%84%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%95%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B8%81%E0%B8%B2%E0%B8%A3%E0%B9%84%E0%B8%94%E0%B9%89%E0%B8%84%E0%B8%A3%E0%B8%B1%E0%B8%9A-i.492264150.25964879871?sp_atk=ad4150d3-7539-42f9-aa44-379102e01233&amp;xptdk=ad4150d3-7539-42f9-aa44-379102e01233</v>
       </c>
       <c r="B55" t="str">
-        <v>https://down-th.img.susercontent.com/file/f4ec4207191d34aa28f3f559f821becd_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98p-lsckat4p3dri19_tn</v>
       </c>
       <c r="C55" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D55" t="str">
-        <v>-2%</v>
+        <v/>
       </c>
       <c r="E55" t="str">
         <v/>
       </c>
       <c r="F55" t="str">
-        <v>[E-Voucher] การีนาเชลล์ 135 Shells</v>
+        <v>ภาคเสริม The Sims 4 เลือกเฉพาะภาคที่ต้องการได้ครับ</v>
       </c>
       <c r="G55" t="str">
-        <v>฿90</v>
+        <v>-</v>
       </c>
       <c r="H55" t="str">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="I55" t="str">
-        <v>ขายแล้ว 13.5พัน ชิ้น</v>
+        <v>ขายแล้ว 46 ชิ้น</v>
       </c>
       <c r="J55" t="str">
-        <v/>
+        <v>จังหวัดอุดรธานี</v>
       </c>
       <c r="K55" t="str">
         <v/>
       </c>
       <c r="L55" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="M55" t="str">
-        <v/>
+        <v>139</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>https://shopee.co.th/-E-Voucher-%E0%B8%81%E0%B8%B2%E0%B8%A3%E0%B8%B5%E0%B8%99%E0%B8%B2%E0%B9%80%E0%B8%8A%E0%B8%A5%E0%B8%A5%E0%B9%8C-225-Shells-i.45810617.15789650094?sp_atk=2b8fb03e-0db1-492d-b58e-027e556418c8&amp;xptdk=2b8fb03e-0db1-492d-b58e-027e556418c8</v>
+        <v>https://shopee.co.th/HyperX-ChargePlay-Duo-%E2%80%93-Charging-Station-for-DualSense%E2%84%A2-Wireless-Controllers-for-PS5-(51P68AA)-i.69583196.19925609528?sp_atk=9d642e18-bb5d-437f-a3fa-606a4ff39c25&amp;xptdk=9d642e18-bb5d-437f-a3fa-606a4ff39c25</v>
       </c>
       <c r="B56" t="str">
-        <v>https://down-th.img.susercontent.com/file/788122169922778adb961f77ad47dcd8_tn</v>
+        <v>https://down-th.img.susercontent.com/file/5dc5d627fd6c9f46044c71870cd3d41a_tn</v>
       </c>
       <c r="C56" t="str">
         <v/>
       </c>
       <c r="D56" t="str">
-        <v>-2%</v>
+        <v>-47%</v>
       </c>
       <c r="E56" t="str">
-        <v/>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-300ddf00d967483819649fe53299280c</v>
       </c>
       <c r="F56" t="str">
-        <v>[E-Voucher] การีนาเชลล์ 225 Shells</v>
+        <v>HyperX ChargePlay Duo – Charging Station for DualSense™ Wireless Controllers for PS5 (51P68AA)</v>
       </c>
       <c r="G56" t="str">
-        <v>฿150</v>
+        <v>฿1,290</v>
       </c>
       <c r="H56" t="str">
-        <v>147</v>
+        <v>690</v>
       </c>
       <c r="I56" t="str">
-        <v>ขายแล้ว 17.2พัน ชิ้น</v>
+        <v>ขายแล้ว 1.3พัน ชิ้น</v>
       </c>
       <c r="J56" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K56" t="str">
         <v/>
@@ -2672,204 +2672,204 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>https://shopee.co.th/S01-%E0%B8%88%E0%B8%AD%E0%B8%A2%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B8%96%E0%B8%B7%E0%B8%AD-%E0%B9%83%E0%B8%AA%E0%B9%88%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B8%96%E0%B8%B7%E0%B8%AD%E0%B8%8A%E0%B9%88%E0%B8%A7%E0%B8%A2%E0%B8%97%E0%B8%B3%E0%B9%83%E0%B8%AB%E0%B9%89%E0%B8%88%E0%B8%B1%E0%B8%9A%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%84%E0%B8%94%E0%B9%89%E0%B8%96%E0%B8%99%E0%B8%B1%E0%B8%94-i.56675644.4750774414?sp_atk=bad9ccfa-22c9-49d9-80af-324b33a042c9&amp;xptdk=bad9ccfa-22c9-49d9-80af-324b33a042c9</v>
+        <v>https://shopee.co.th/%E0%B8%88%E0%B8%AD%E0%B8%A2%E0%B9%80%E0%B8%81%E0%B8%A1-%E0%B8%9A%E0%B8%A5%E0%B8%B9%E0%B8%97%E0%B8%B9%E0%B8%98%E0%B9%84%E0%B8%A3%E0%B9%89%E0%B8%AA%E0%B8%B2%E0%B8%A2-%E0%B9%81%E0%B8%9B%E0%B9%89%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%9A%E0%B8%A5%E0%B8%B9%E0%B8%97%E0%B8%B9%E0%B8%98-Game-Controller-for-Android-ios-%E0%B8%88%E0%B8%AD%E0%B8%A2%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B9%8A%E0%B8%81%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2-i.1018331375.22871637912?sp_atk=5b18c7d3-bd43-4667-b6d6-70aef65458b2&amp;xptdk=5b18c7d3-bd43-4667-b6d6-70aef65458b2</v>
       </c>
       <c r="B57" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98r-lnub0q2guyjr1a_tn</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-7qvcv-liafxnpyw74d95_tn</v>
       </c>
       <c r="C57" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="D57" t="str">
-        <v>-98%</v>
+        <v>-61%</v>
       </c>
       <c r="E57" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="F57" t="str">
-        <v>S01 จอยเล่นมือถือ ใส่มือถือช่วยทำให้จับเล่นได้ถนัด</v>
+        <v>จอยเกม บลูทูธไร้สาย แป้นเกมบลูทูธ Game Controller for Android ios จอยสติ๊กแบบพกพา</v>
       </c>
       <c r="G57" t="str">
         <v>-</v>
       </c>
       <c r="H57" t="str">
-        <v>1</v>
+        <v>162</v>
       </c>
       <c r="I57" t="str">
-        <v>ขายแล้ว 1.3พัน ชิ้น</v>
+        <v>ขายแล้ว 228 ชิ้น</v>
       </c>
       <c r="J57" t="str">
-        <v>จังหวัดนนทบุรี</v>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="K57" t="str">
-        <v>฿</v>
+        <v>โค้ดลด 95%</v>
       </c>
       <c r="L57" t="str">
-        <v>158</v>
+        <v>฿</v>
       </c>
       <c r="M57" t="str">
-        <v/>
+        <v>217</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>https://shopee.co.th/Bluewow-%E3%80%90Fallen-Angel%E3%80%91%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%81%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1-%E0%B8%99%E0%B8%B2%E0%B9%82%E0%B8%99%E0%B9%84%E0%B8%9F%E0%B9%80%E0%B8%9A%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%80%E0%B8%AB%E0%B8%87%E0%B8%B7%E0%B9%88%E0%B8%AD-%E0%B8%A3%E0%B8%B0%E0%B8%9A%E0%B8%B2%E0%B8%A2%E0%B8%AD%E0%B8%B2%E0%B8%81%E0%B8%B2%E0%B8%A8-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A-Pubg-i.853055097.22155126994?sp_atk=e8b939aa-3e2c-4eea-b6de-61931e455dc1&amp;xptdk=e8b939aa-3e2c-4eea-b6de-61931e455dc1</v>
+        <v>https://shopee.co.th/%E0%B8%A5%E0%B8%B2%E0%B8%A2%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88%E0%B9%80%E0%B8%9E%E0%B8%B5%E0%B8%A2%E0%B8%9A-%E0%B8%8B%E0%B8%B4%E0%B8%A5%E0%B8%B4%E0%B9%82%E0%B8%84%E0%B8%99%E0%B8%84%E0%B8%A3%E0%B8%AD%E0%B8%9B-analog-Joy-Pro-Controller-NSW-PS4-5-Xbox-(%E0%B8%82%E0%B8%B2%E0%B8%A2%E0%B9%80%E0%B8%9B%E0%B9%87%E0%B8%99%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99)-i.141856737.3860434676?sp_atk=678657a1-1781-4144-9b7b-10ca66c8fbbc&amp;xptdk=678657a1-1781-4144-9b7b-10ca66c8fbbc</v>
       </c>
       <c r="B58" t="str">
-        <v>https://down-th.img.susercontent.com/file/cn-11134207-7r98o-lmra668zs3j8f4_tn</v>
+        <v>https://down-th.img.susercontent.com/file/a5b59b3e079b5c740d05afcada992c12_tn</v>
       </c>
       <c r="C58" t="str">
         <v>ร้านแนะนำ</v>
       </c>
       <c r="D58" t="str">
-        <v>-91%</v>
+        <v>-36%</v>
       </c>
       <c r="E58" t="str">
         <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="F58" t="str">
-        <v>Bluewow 【Fallen Angel】ปลอกนิ้วมือเล่นเกม นาโนไฟเบอร์ กันเหงื่อ ระบายอากาศ สําหรับ Pubg</v>
+        <v>ลายใหม่เพียบ ซิลิโคนครอป analog Joy Pro Controller NSW/PS4,5/Xbox (ขายเป็นชิ้น)</v>
       </c>
       <c r="G58" t="str">
         <v>-</v>
       </c>
       <c r="H58" t="str">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I58" t="str">
-        <v>ขายแล้ว 277 ชิ้น</v>
+        <v>ขายแล้ว 7.6พัน ชิ้น</v>
       </c>
       <c r="J58" t="str">
-        <v>ต่างประเทศ</v>
+        <v>จังหวัดนครปฐม</v>
       </c>
       <c r="K58" t="str">
-        <v>฿</v>
+        <v/>
       </c>
       <c r="L58" t="str">
-        <v>65</v>
+        <v>฿</v>
       </c>
       <c r="M58" t="str">
-        <v>โค้ดลด ฿1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>https://shopee.co.th/%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1-Game-Stick-4k-10K-%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%AA%E0%B9%8C-64GB-%E0%B8%84%E0%B8%AD%E0%B8%99%E0%B9%82%E0%B8%8B%E0%B8%A5%E0%B8%A7%E0%B8%B4%E0%B8%94%E0%B8%B5%E0%B9%82%E0%B8%AD%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%84%E0%B8%AD%E0%B8%99%E0%B9%82%E0%B8%8B%E0%B8%A5%E0%B9%80%E0%B8%81%E0%B8%A1-%E0%B8%81%E0%B8%B2%E0%B8%A3%E0%B8%95%E0%B9%88%E0%B8%AD%E0%B8%AA%E0%B8%B9%E0%B9%89%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B8%AA%E0%B8%AD%E0%B8%87%E0%B8%84%E0%B8%99-HDMI-playstation-i.1178590228.25812215469?sp_atk=97e2436e-871b-46f5-9a08-e80eff16b2e0&amp;xptdk=97e2436e-871b-46f5-9a08-e80eff16b2e0</v>
+        <v>https://shopee.co.th/ERORO-%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%81%E0%B8%94-%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%AA%E0%B9%8C%E0%B8%9A%E0%B8%AD%E0%B8%A2-%E0%B8%88%E0%B8%AD%E0%B8%AA%E0%B8%B5-400-%E0%B9%80%E0%B8%81%E0%B8%A1-in-1-Games-400-in-1-Sup-%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B5%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B9%80%E0%B8%81%E0%B8%A1-Game-Console-i.311784175.8092926676?sp_atk=f4157826-47b7-432d-a455-268a0c6c9de7&amp;xptdk=f4157826-47b7-432d-a455-268a0c6c9de7</v>
       </c>
       <c r="B59" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134201-7r98t-ls13u1z1n1asa6_tn</v>
+        <v>https://down-th.img.susercontent.com/file/058eb79950a46de7de32cf744abbee28_tn</v>
       </c>
       <c r="C59" t="str">
         <v/>
       </c>
       <c r="D59" t="str">
-        <v>-81%</v>
+        <v>-46%</v>
       </c>
       <c r="E59" t="str">
         <v/>
       </c>
       <c r="F59" t="str">
-        <v>เครื่องเล่นเกม Game Stick 4k 10K เกมส์ 64GB คอนโซลวิดีโอเกมคอนโซลเกม การต่อสู้ผู้เล่นสองคน HDMI playstation</v>
+        <v>ERORO เกมกด เกมส์บอย จอสี 400 เกม in 1 Games 400 in 1 Sup เครี่องเกม Game Console</v>
       </c>
       <c r="G59" t="str">
         <v>-</v>
       </c>
       <c r="H59" t="str">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="I59" t="str">
-        <v>ขายแล้ว 88 ชิ้น</v>
+        <v>ขายแล้ว 2.5พัน ชิ้น</v>
       </c>
       <c r="J59" t="str">
-        <v>จังหวัดสมุทรปราการ</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K59" t="str">
-        <v>฿</v>
+        <v/>
       </c>
       <c r="L59" t="str">
-        <v>529</v>
+        <v>฿</v>
       </c>
       <c r="M59" t="str">
-        <v>โค้ดลด 80%</v>
+        <v>199</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>https://shopee.co.th/(1%E0%B8%AD%E0%B8%B1%E0%B8%99)-%E0%B8%8B%E0%B8%B4%E0%B8%A5%E0%B8%B4%E0%B9%82%E0%B8%84%E0%B8%99%E0%B8%AB%E0%B8%B8%E0%B9%89%E0%B8%A1%E0%B8%9B%E0%B8%B8%E0%B9%88%E0%B8%A1%E0%B8%AD%E0%B8%99%E0%B8%B2%E0%B8%A5%E0%B8%AD%E0%B8%84%E0%B8%88%E0%B8%AD%E0%B8%A2-PS5-PS4-PS3-PS2-Xbox-Series-Xbox-Joy-Pro-Switch-Grip-Cap-Controller-%E0%B8%A5%E0%B8%B4%E0%B9%89%E0%B8%87%E0%B8%84%E0%B9%8C1-i.32875411.22119193899?sp_atk=2169f661-d7cd-4fb6-bdcf-5493a6513c1d&amp;xptdk=2169f661-d7cd-4fb6-bdcf-5493a6513c1d</v>
+        <v>https://shopee.co.th/%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1-(%E0%B9%81%E0%B8%9E%E0%B9%87%E0%B8%84-1-%E0%B8%84%E0%B8%B9%E0%B9%88)-%E0%B8%84%E0%B8%A7%E0%B8%B2%E0%B8%A1%E0%B9%84%E0%B8%A7%E0%B8%AA%E0%B8%B9%E0%B8%87-%E0%B8%97%E0%B8%B1%E0%B8%8A%E0%B8%A5%E0%B8%B7%E0%B9%88%E0%B8%99-%E0%B9%81%E0%B8%A1%E0%B9%88%E0%B8%99%E0%B8%A2%E0%B8%B3-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%A5%E0%B8%B7%E0%B9%88%E0%B8%99%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B8%9B%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%80%E0%B8%AB%E0%B8%87%E0%B8%B7%E0%B9%88%E0%B8%AD-3-%E0%B8%AA%E0%B8%B5-i.844236594.24650816883?sp_atk=13452298-3799-488b-91d3-70d87930b0d3&amp;xptdk=13452298-3799-488b-91d3-70d87930b0d3</v>
       </c>
       <c r="B60" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134211-23030-tsrlcbt0coovb5_tn</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-7rbkq-lo0ld9zhpe72fb_tn</v>
       </c>
       <c r="C60" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="D60" t="str">
-        <v>-17%</v>
+        <v>-82%</v>
       </c>
       <c r="E60" t="str">
-        <v/>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="F60" t="str">
-        <v>(1อัน) ซิลิโคนหุ้มปุ่มอนาลอคจอย PS5 /PS4 /PS3 /PS2 /Xbox Series /Xbox /Joy Pro Switch /Grip Cap, Controller #ลิ้งค์1</v>
+        <v>ถุงมือเล่นเกม (แพ็ค 1 คู่) ความไวสูง ทัชลื่น แม่นยำ กันลื่นและป้องกันเหงื่อ 3 สี</v>
       </c>
       <c r="G60" t="str">
         <v>-</v>
       </c>
       <c r="H60" t="str">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I60" t="str">
-        <v>ขายแล้ว 7.3พัน ชิ้น</v>
+        <v>ขายแล้ว 69 ชิ้น</v>
       </c>
       <c r="J60" t="str">
-        <v>จังหวัดนนทบุรี</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K60" t="str">
-        <v>฿</v>
+        <v/>
       </c>
       <c r="L60" t="str">
-        <v>19</v>
+        <v>฿</v>
       </c>
       <c r="M60" t="str">
-        <v/>
+        <v>4</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>https://shopee.co.th/%E0%B8%A5%E0%B8%B2%E0%B8%A2%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%8849%E0%B9%81%E0%B8%9A%E0%B8%9A-2023-%E0%B8%8B%E0%B8%B4%E0%B8%A5%E0%B8%B4%E0%B9%82%E0%B8%84%E0%B8%99%E0%B8%84%E0%B8%A3%E0%B8%AD%E0%B8%9B-analog-joy-con-nintendo-switch-Lite-OLED-(%E0%B8%82%E0%B8%B2%E0%B8%A2%E0%B9%80%E0%B8%9B%E0%B9%87%E0%B8%99%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99)-i.141856737.19990002686?sp_atk=08f664df-8cb2-4298-9daa-bbe61659eb5b&amp;xptdk=08f664df-8cb2-4298-9daa-bbe61659eb5b</v>
+        <v>https://shopee.co.th/Zkronsky-%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%AA%E0%B9%8C-(1%E0%B9%81%E0%B8%9E%E0%B9%87%E0%B8%84-2-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99)-%E0%B8%A1%E0%B8%B5%E0%B9%83%E0%B8%AB%E0%B9%89%E0%B9%80%E0%B8%A5%E0%B8%B7%E0%B8%AD%E0%B8%81-3-%E0%B9%80%E0%B8%81%E0%B8%A3%E0%B8%94-%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B8%AA%E0%B8%B3%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1-%E0%B9%80%E0%B8%81%E0%B8%A1%E0%B8%A1%E0%B8%B4%E0%B9%88%E0%B8%87-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%A5%E0%B8%B7%E0%B9%88%E0%B8%99%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B8%9B%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%80%E0%B8%AB%E0%B8%87%E0%B8%B7%E0%B9%88%E0%B8%AD-%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B9%80%E0%B8%A5%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%A1-Pubg-Rov-Call-of-duty-%E0%B8%97%E0%B8%B1%E0%B8%8A%E0%B8%A5%E0%B8%B7%E0%B9%88%E0%B8%99-%E0%B9%81%E0%B8%A1%E0%B9%88%E0%B8%99%E0%B8%A2%E0%B8%B3-i.291548354.18611693822?sp_atk=d241b33b-aae3-44c8-b601-1898d455a451&amp;xptdk=d241b33b-aae3-44c8-b601-1898d455a451</v>
       </c>
       <c r="B61" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7qula-li85j6yh66soa4_tn</v>
+        <v>https://down-th.img.susercontent.com/file/cn-11134207-7qukw-lj1fbfey467u9b_tn</v>
       </c>
       <c r="C61" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="D61" t="str">
-        <v/>
+        <v>-95%</v>
       </c>
       <c r="E61" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="F61" t="str">
-        <v>ลายใหม่49แบบ 2023  ซิลิโคนครอป analog joy-con nintendo switch/ Lite/ OLED (ขายเป็นชิ้น)</v>
+        <v>Zkronsky ถุงนิ้วเล่นเกมส์ (1แพ็ค 2 ชิ้น) มีให้เลือก 3 เกรด ถุงนิ้วสำหรับเล่นเกม เกมมิ่ง กันลื่นและป้องกันเหงื่อ ถุงมือเล่นเกม Pubg Rov Call of duty ทัชลื่น แม่นยำ</v>
       </c>
       <c r="G61" t="str">
-        <v>-</v>
+        <v>฿252</v>
       </c>
       <c r="H61" t="str">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I61" t="str">
-        <v>ขายแล้ว 1.9พัน ชิ้น</v>
+        <v>ขายแล้ว 16.1พัน ชิ้น</v>
       </c>
       <c r="J61" t="str">
-        <v>จังหวัดนครปฐม</v>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="K61" t="str">
-        <v>฿</v>
+        <v/>
       </c>
       <c r="L61" t="str">
-        <v>15</v>
+        <v/>
       </c>
       <c r="M61" t="str">
         <v/>
